--- a/Code/Results/Cases/Case_4_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_11/res_line/pl_mw.xlsx
@@ -415,13 +415,13 @@
         <v>2.449740319143416</v>
       </c>
       <c r="C2">
-        <v>0.7907962289084196</v>
+        <v>0.7907962289086754</v>
       </c>
       <c r="D2">
-        <v>0.2045758375938789</v>
+        <v>0.2045758375941062</v>
       </c>
       <c r="E2">
-        <v>0.2649933760350152</v>
+        <v>0.2649933760350081</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,16 +430,16 @@
         <v>2.676861442917314</v>
       </c>
       <c r="H2">
-        <v>1.928973928741442</v>
+        <v>1.928973928741428</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7422232224247409</v>
+        <v>0.7422232224247338</v>
       </c>
       <c r="K2">
-        <v>0.5053052327865188</v>
+        <v>0.5053052327865402</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.103839590928544</v>
+        <v>2.103839590928487</v>
       </c>
       <c r="C3">
-        <v>0.6778265660080081</v>
+        <v>0.6778265660080649</v>
       </c>
       <c r="D3">
-        <v>0.1759594180245045</v>
+        <v>0.1759594180245188</v>
       </c>
       <c r="E3">
-        <v>0.2272584778323861</v>
+        <v>0.22725847783245</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.374744973825045</v>
+        <v>2.374744973825059</v>
       </c>
       <c r="H3">
-        <v>1.729968756357337</v>
+        <v>1.729968756357351</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6370461925769604</v>
+        <v>0.6370461925769746</v>
       </c>
       <c r="K3">
-        <v>0.4330534627872211</v>
+        <v>0.433053462787278</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.895717120830881</v>
+        <v>1.895717120831051</v>
       </c>
       <c r="C4">
-        <v>0.6099878353042243</v>
+        <v>0.6099878353044801</v>
       </c>
       <c r="D4">
-        <v>0.1587837127081002</v>
+        <v>0.158783712707887</v>
       </c>
       <c r="E4">
-        <v>0.2046886862072057</v>
+        <v>0.2046886862071702</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.195147950103362</v>
+        <v>2.195147950103348</v>
       </c>
       <c r="H4">
         <v>1.611894645491759</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5737980955741335</v>
+        <v>0.5737980955741406</v>
       </c>
       <c r="K4">
-        <v>0.3897779022044858</v>
+        <v>0.3897779022044503</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.81181079760367</v>
+        <v>1.811810797603584</v>
       </c>
       <c r="C5">
-        <v>0.5826652340037413</v>
+        <v>0.5826652340035139</v>
       </c>
       <c r="D5">
-        <v>0.1518691388875766</v>
+        <v>0.1518691388873208</v>
       </c>
       <c r="E5">
-        <v>0.195619333603176</v>
+        <v>0.1956193336031689</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5483062292986887</v>
+        <v>0.5483062292986958</v>
       </c>
       <c r="K5">
-        <v>0.3723741810173493</v>
+        <v>0.3723741810173564</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.797928359868621</v>
+        <v>1.797928359868791</v>
       </c>
       <c r="C6">
-        <v>0.5781461316680634</v>
+        <v>0.5781461316684613</v>
       </c>
       <c r="D6">
-        <v>0.1507256932117969</v>
+        <v>0.1507256932116121</v>
       </c>
       <c r="E6">
-        <v>0.1941204874750966</v>
+        <v>0.1941204874751463</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.111389139185775</v>
+        <v>2.111389139185761</v>
       </c>
       <c r="H6">
-        <v>1.556895021057102</v>
+        <v>1.556895021057073</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5440889431477842</v>
+        <v>0.5440889431478055</v>
       </c>
       <c r="K6">
         <v>0.3694971407777956</v>
@@ -605,19 +605,19 @@
         <v>1.894582072558762</v>
       </c>
       <c r="C7">
-        <v>0.6096181246450953</v>
+        <v>0.6096181246451522</v>
       </c>
       <c r="D7">
-        <v>0.158690135792412</v>
+        <v>0.1586901357924262</v>
       </c>
       <c r="E7">
-        <v>0.2045658836941371</v>
+        <v>0.2045658836940589</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.194173366401984</v>
+        <v>2.194173366401998</v>
       </c>
       <c r="H7">
         <v>1.61125443588034</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5734532258162446</v>
+        <v>0.5734532258162659</v>
       </c>
       <c r="K7">
-        <v>0.3895423047531992</v>
+        <v>0.3895423047532205</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,10 +643,10 @@
         <v>2.329483122013016</v>
       </c>
       <c r="C8">
-        <v>0.7514886924547</v>
+        <v>0.7514886924548989</v>
       </c>
       <c r="D8">
-        <v>0.1946176303514164</v>
+        <v>0.1946176303513312</v>
       </c>
       <c r="E8">
         <v>0.25184343437585</v>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.571344860226901</v>
+        <v>2.571344860226887</v>
       </c>
       <c r="H8">
         <v>1.859419987930977</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.705648501607044</v>
+        <v>0.7056485016070511</v>
       </c>
       <c r="K8">
         <v>0.4801403765882739</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.224756432203776</v>
+        <v>3.224756432203662</v>
       </c>
       <c r="C9">
-        <v>1.044973827634578</v>
+        <v>1.044973827635175</v>
       </c>
       <c r="D9">
-        <v>0.268958436161725</v>
+        <v>0.2689584361617676</v>
       </c>
       <c r="E9">
-        <v>0.350491328274984</v>
+        <v>0.3504913282750337</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.367660375876028</v>
+        <v>3.367660375876</v>
       </c>
       <c r="H9">
         <v>2.385423114575161</v>
@@ -705,7 +705,7 @@
         <v>0.9781606338452491</v>
       </c>
       <c r="K9">
-        <v>0.668607213524588</v>
+        <v>0.6686072135245809</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.92246264431418</v>
+        <v>3.922462644314123</v>
       </c>
       <c r="C10">
         <v>1.275113532440457</v>
       </c>
       <c r="D10">
-        <v>0.3271713286421232</v>
+        <v>0.3271713286421374</v>
       </c>
       <c r="E10">
-        <v>0.4285196072230733</v>
+        <v>0.4285196072230804</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.003269669493363</v>
+        <v>4.00326966949342</v>
       </c>
       <c r="H10">
         <v>2.806739730503921</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.19091154768094</v>
+        <v>1.190911547680926</v>
       </c>
       <c r="K10">
-        <v>0.8172270271640656</v>
+        <v>0.817227027164023</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.252413098931754</v>
+        <v>4.25241309893164</v>
       </c>
       <c r="C11">
-        <v>1.384398616495844</v>
+        <v>1.384398616496242</v>
       </c>
       <c r="D11">
-        <v>0.354769018896647</v>
+        <v>0.3547690188969312</v>
       </c>
       <c r="E11">
-        <v>0.4657566060395908</v>
+        <v>0.4657566060395695</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.307783077616904</v>
+        <v>4.307783077616875</v>
       </c>
       <c r="H11">
-        <v>3.008950539678139</v>
+        <v>3.008950539678125</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.29164236628003</v>
+        <v>1.291642366280001</v>
       </c>
       <c r="K11">
-        <v>0.888028527627597</v>
+        <v>0.8880285276276112</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.379558952495984</v>
+        <v>4.379558952496041</v>
       </c>
       <c r="C12">
-        <v>1.426590162915033</v>
+        <v>1.426590162915261</v>
       </c>
       <c r="D12">
-        <v>0.36541412639464</v>
+        <v>0.3654141263949526</v>
       </c>
       <c r="E12">
-        <v>0.4801627505633235</v>
+        <v>0.4801627505633022</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.425752054457064</v>
+        <v>4.425752054457178</v>
       </c>
       <c r="H12">
-        <v>3.087343144079071</v>
+        <v>3.087343144079085</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.330479675295379</v>
+        <v>1.330479675295422</v>
       </c>
       <c r="K12">
-        <v>0.9153998882477623</v>
+        <v>0.9153998882477481</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.352070848688982</v>
+        <v>4.352070848689038</v>
       </c>
       <c r="C13">
         <v>1.417464888908398</v>
       </c>
       <c r="D13">
-        <v>0.363112255445202</v>
+        <v>0.3631122554450599</v>
       </c>
       <c r="E13">
-        <v>0.4770455623737462</v>
+        <v>0.4770455623737817</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.400219181121486</v>
+        <v>4.400219181121457</v>
       </c>
       <c r="H13">
-        <v>3.070373536124251</v>
+        <v>3.070373536124222</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.32208231255602</v>
+        <v>1.322082312556006</v>
       </c>
       <c r="K13">
-        <v>0.9094782314828365</v>
+        <v>0.909478231482808</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.262826831629354</v>
+        <v>4.262826831629297</v>
       </c>
       <c r="C14">
-        <v>1.387852609971389</v>
+        <v>1.387852609971276</v>
       </c>
       <c r="D14">
-        <v>0.3556406843339488</v>
+        <v>0.3556406843335367</v>
       </c>
       <c r="E14">
-        <v>0.4669353372258769</v>
+        <v>0.4669353372258982</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.317432367330071</v>
+        <v>4.317432367330042</v>
       </c>
       <c r="H14">
-        <v>3.015361542653949</v>
+        <v>3.01536154265392</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.294822852059923</v>
+        <v>1.294822852059895</v>
       </c>
       <c r="K14">
-        <v>0.8902685061738538</v>
+        <v>0.8902685061738396</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.208461874225065</v>
+        <v>4.208461874225122</v>
       </c>
       <c r="C15">
-        <v>1.369824260818348</v>
+        <v>1.369824260818632</v>
       </c>
       <c r="D15">
-        <v>0.35109056880205</v>
+        <v>0.3510905688020358</v>
       </c>
       <c r="E15">
         <v>0.4607841003897235</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.267083635267767</v>
+        <v>4.267083635267738</v>
       </c>
       <c r="H15">
         <v>2.981912022944925</v>
@@ -933,7 +933,7 @@
         <v>1.278219965809072</v>
       </c>
       <c r="K15">
-        <v>0.8785783041722937</v>
+        <v>0.878578304172251</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.901184456099145</v>
+        <v>3.901184456098861</v>
       </c>
       <c r="C16">
-        <v>1.268075884864516</v>
+        <v>1.268075884864288</v>
       </c>
       <c r="D16">
-        <v>0.3253929823085571</v>
+        <v>0.3253929823081876</v>
       </c>
       <c r="E16">
-        <v>0.4261255838968978</v>
+        <v>0.4261255838968339</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.983714617298034</v>
+        <v>3.983714617298091</v>
       </c>
       <c r="H16">
-        <v>2.79376172978472</v>
+        <v>2.793761729784734</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.184418174915351</v>
+        <v>1.184418174915336</v>
       </c>
       <c r="K16">
-        <v>0.812672463723743</v>
+        <v>0.8126724637237004</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.716155514531636</v>
+        <v>3.716155514531579</v>
       </c>
       <c r="C17">
-        <v>1.206929374777644</v>
+        <v>1.206929374777474</v>
       </c>
       <c r="D17">
-        <v>0.3099365665678135</v>
+        <v>0.3099365665678562</v>
       </c>
       <c r="E17">
-        <v>0.4053456618755291</v>
+        <v>0.4053456618754936</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.81410666123719</v>
+        <v>3.814106661237162</v>
       </c>
       <c r="H17">
-        <v>2.681238770062805</v>
+        <v>2.681238770062791</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.127967161848019</v>
+        <v>1.127967161848034</v>
       </c>
       <c r="K17">
         <v>0.7731255166482143</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.610886576811822</v>
+        <v>3.61088657681222</v>
       </c>
       <c r="C18">
-        <v>1.172181620605841</v>
+        <v>1.172181620605954</v>
       </c>
       <c r="D18">
-        <v>0.3011491702890936</v>
+        <v>0.3011491702888947</v>
       </c>
       <c r="E18">
-        <v>0.3935536966759585</v>
+        <v>0.3935536966760509</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.717968547780032</v>
+        <v>3.717968547779975</v>
       </c>
       <c r="H18">
         <v>2.617490746227062</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.095861083028069</v>
+        <v>1.095861083027984</v>
       </c>
       <c r="K18">
-        <v>0.7506727060929705</v>
+        <v>0.7506727060930061</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.575431785148567</v>
+        <v>3.575431785148737</v>
       </c>
       <c r="C19">
-        <v>1.160485075480267</v>
+        <v>1.160485075480722</v>
       </c>
       <c r="D19">
-        <v>0.2981906142997275</v>
+        <v>0.2981906142996849</v>
       </c>
       <c r="E19">
-        <v>0.3895871280287722</v>
+        <v>0.3895871280288574</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.685648707135101</v>
+        <v>3.685648707135158</v>
       </c>
       <c r="H19">
-        <v>2.596065387070951</v>
+        <v>2.596065387070965</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>1.085049431446237</v>
       </c>
       <c r="K19">
-        <v>0.7431182059502532</v>
+        <v>0.743118205950303</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.735730011931537</v>
+        <v>3.735730011931423</v>
       </c>
       <c r="C20">
-        <v>1.213393860069232</v>
+        <v>1.213393860069004</v>
       </c>
       <c r="D20">
-        <v>0.3115710701002143</v>
+        <v>0.311571070100257</v>
       </c>
       <c r="E20">
-        <v>0.407540785793941</v>
+        <v>0.4075407857939339</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,16 +1114,16 @@
         <v>3.832012202351848</v>
       </c>
       <c r="H20">
-        <v>2.693114393019968</v>
+        <v>2.693114393019926</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.133938062559736</v>
+        <v>1.133938062559693</v>
       </c>
       <c r="K20">
-        <v>0.7773043029057334</v>
+        <v>0.7773043029056907</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.28897671841662</v>
+        <v>4.288976718416791</v>
       </c>
       <c r="C21">
-        <v>1.39652722106598</v>
+        <v>1.396527221065412</v>
       </c>
       <c r="D21">
-        <v>0.3578296867255943</v>
+        <v>0.357829686725367</v>
       </c>
       <c r="E21">
-        <v>0.4698961793439906</v>
+        <v>0.4698961793440404</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,16 +1152,16 @@
         <v>4.341672799961486</v>
       </c>
       <c r="H21">
-        <v>3.031467820673996</v>
+        <v>3.03146782067401</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.302809703014574</v>
+        <v>1.302809703014603</v>
       </c>
       <c r="K21">
-        <v>0.8958947564992599</v>
+        <v>0.8958947564992457</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>4.663623815644996</v>
       </c>
       <c r="C22">
-        <v>1.521013217934467</v>
+        <v>1.521013217934069</v>
       </c>
       <c r="D22">
-        <v>0.3892163963844268</v>
+        <v>0.3892163963841995</v>
       </c>
       <c r="E22">
         <v>0.5124622498101346</v>
@@ -1190,7 +1190,7 @@
         <v>4.690519904219997</v>
       </c>
       <c r="H22">
-        <v>3.263392003425452</v>
+        <v>3.263392003425466</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>1.417291070520989</v>
       </c>
       <c r="K22">
-        <v>0.9767287729938516</v>
+        <v>0.9767287729938801</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.462321063255729</v>
+        <v>4.462321063255786</v>
       </c>
       <c r="C23">
-        <v>1.454077336087266</v>
+        <v>1.454077336087551</v>
       </c>
       <c r="D23">
-        <v>0.3723462032786813</v>
+        <v>0.3723462032788376</v>
       </c>
       <c r="E23">
-        <v>0.4895569791526384</v>
+        <v>0.4895569791526739</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.502721960300306</v>
+        <v>4.502721960300335</v>
       </c>
       <c r="H23">
-        <v>3.138507031873402</v>
+        <v>3.138507031873417</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>1.355766047027458</v>
       </c>
       <c r="K23">
-        <v>0.9332428193488482</v>
+        <v>0.9332428193488056</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.726876963391135</v>
+        <v>3.726876963391248</v>
       </c>
       <c r="C24">
-        <v>1.210470011782206</v>
+        <v>1.210470011782093</v>
       </c>
       <c r="D24">
-        <v>0.310831806085389</v>
+        <v>0.3108318060853463</v>
       </c>
       <c r="E24">
-        <v>0.4065478924336503</v>
+        <v>0.4065478924336077</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.823912867025911</v>
+        <v>3.823912867025996</v>
       </c>
       <c r="H24">
-        <v>2.68774250895919</v>
+        <v>2.687742508959218</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.131237542371892</v>
+        <v>1.131237542371863</v>
       </c>
       <c r="K24">
-        <v>0.7754141987067129</v>
+        <v>0.7754141987066987</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.976694442941891</v>
+        <v>2.976694442941721</v>
       </c>
       <c r="C25">
         <v>0.9634543738645789</v>
       </c>
       <c r="D25">
-        <v>0.2483156244753673</v>
+        <v>0.2483156244753815</v>
       </c>
       <c r="E25">
-        <v>0.3229875796385642</v>
+        <v>0.3229875796385002</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,16 +1304,16 @@
         <v>3.144660104938566</v>
       </c>
       <c r="H25">
-        <v>2.237887641220809</v>
+        <v>2.237887641220823</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.9025999419210962</v>
+        <v>0.9025999419211104</v>
       </c>
       <c r="K25">
-        <v>0.6161305715193706</v>
+        <v>0.6161305715193635</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_11/res_line/pl_mw.xlsx
@@ -415,13 +415,13 @@
         <v>2.449740319143416</v>
       </c>
       <c r="C2">
-        <v>0.7907962289086754</v>
+        <v>0.7907962289084196</v>
       </c>
       <c r="D2">
-        <v>0.2045758375941062</v>
+        <v>0.2045758375938789</v>
       </c>
       <c r="E2">
-        <v>0.2649933760350081</v>
+        <v>0.2649933760350152</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,16 +430,16 @@
         <v>2.676861442917314</v>
       </c>
       <c r="H2">
-        <v>1.928973928741428</v>
+        <v>1.928973928741442</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7422232224247338</v>
+        <v>0.7422232224247409</v>
       </c>
       <c r="K2">
-        <v>0.5053052327865402</v>
+        <v>0.5053052327865188</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.103839590928487</v>
+        <v>2.103839590928544</v>
       </c>
       <c r="C3">
-        <v>0.6778265660080649</v>
+        <v>0.6778265660080081</v>
       </c>
       <c r="D3">
-        <v>0.1759594180245188</v>
+        <v>0.1759594180245045</v>
       </c>
       <c r="E3">
-        <v>0.22725847783245</v>
+        <v>0.2272584778323861</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.374744973825059</v>
+        <v>2.374744973825045</v>
       </c>
       <c r="H3">
-        <v>1.729968756357351</v>
+        <v>1.729968756357337</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6370461925769746</v>
+        <v>0.6370461925769604</v>
       </c>
       <c r="K3">
-        <v>0.433053462787278</v>
+        <v>0.4330534627872211</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.895717120831051</v>
+        <v>1.895717120830881</v>
       </c>
       <c r="C4">
-        <v>0.6099878353044801</v>
+        <v>0.6099878353042243</v>
       </c>
       <c r="D4">
-        <v>0.158783712707887</v>
+        <v>0.1587837127081002</v>
       </c>
       <c r="E4">
-        <v>0.2046886862071702</v>
+        <v>0.2046886862072057</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.195147950103348</v>
+        <v>2.195147950103362</v>
       </c>
       <c r="H4">
         <v>1.611894645491759</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5737980955741406</v>
+        <v>0.5737980955741335</v>
       </c>
       <c r="K4">
-        <v>0.3897779022044503</v>
+        <v>0.3897779022044858</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.811810797603584</v>
+        <v>1.81181079760367</v>
       </c>
       <c r="C5">
-        <v>0.5826652340035139</v>
+        <v>0.5826652340037413</v>
       </c>
       <c r="D5">
-        <v>0.1518691388873208</v>
+        <v>0.1518691388875766</v>
       </c>
       <c r="E5">
-        <v>0.1956193336031689</v>
+        <v>0.195619333603176</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5483062292986958</v>
+        <v>0.5483062292986887</v>
       </c>
       <c r="K5">
-        <v>0.3723741810173564</v>
+        <v>0.3723741810173493</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.797928359868791</v>
+        <v>1.797928359868621</v>
       </c>
       <c r="C6">
-        <v>0.5781461316684613</v>
+        <v>0.5781461316680634</v>
       </c>
       <c r="D6">
-        <v>0.1507256932116121</v>
+        <v>0.1507256932117969</v>
       </c>
       <c r="E6">
-        <v>0.1941204874751463</v>
+        <v>0.1941204874750966</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.111389139185761</v>
+        <v>2.111389139185775</v>
       </c>
       <c r="H6">
-        <v>1.556895021057073</v>
+        <v>1.556895021057102</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5440889431478055</v>
+        <v>0.5440889431477842</v>
       </c>
       <c r="K6">
         <v>0.3694971407777956</v>
@@ -605,19 +605,19 @@
         <v>1.894582072558762</v>
       </c>
       <c r="C7">
-        <v>0.6096181246451522</v>
+        <v>0.6096181246450953</v>
       </c>
       <c r="D7">
-        <v>0.1586901357924262</v>
+        <v>0.158690135792412</v>
       </c>
       <c r="E7">
-        <v>0.2045658836940589</v>
+        <v>0.2045658836941371</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.194173366401998</v>
+        <v>2.194173366401984</v>
       </c>
       <c r="H7">
         <v>1.61125443588034</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5734532258162659</v>
+        <v>0.5734532258162446</v>
       </c>
       <c r="K7">
-        <v>0.3895423047532205</v>
+        <v>0.3895423047531992</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,10 +643,10 @@
         <v>2.329483122013016</v>
       </c>
       <c r="C8">
-        <v>0.7514886924548989</v>
+        <v>0.7514886924547</v>
       </c>
       <c r="D8">
-        <v>0.1946176303513312</v>
+        <v>0.1946176303514164</v>
       </c>
       <c r="E8">
         <v>0.25184343437585</v>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.571344860226887</v>
+        <v>2.571344860226901</v>
       </c>
       <c r="H8">
         <v>1.859419987930977</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.7056485016070511</v>
+        <v>0.705648501607044</v>
       </c>
       <c r="K8">
         <v>0.4801403765882739</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.224756432203662</v>
+        <v>3.224756432203776</v>
       </c>
       <c r="C9">
-        <v>1.044973827635175</v>
+        <v>1.044973827634578</v>
       </c>
       <c r="D9">
-        <v>0.2689584361617676</v>
+        <v>0.268958436161725</v>
       </c>
       <c r="E9">
-        <v>0.3504913282750337</v>
+        <v>0.350491328274984</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.367660375876</v>
+        <v>3.367660375876028</v>
       </c>
       <c r="H9">
         <v>2.385423114575161</v>
@@ -705,7 +705,7 @@
         <v>0.9781606338452491</v>
       </c>
       <c r="K9">
-        <v>0.6686072135245809</v>
+        <v>0.668607213524588</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.922462644314123</v>
+        <v>3.92246264431418</v>
       </c>
       <c r="C10">
         <v>1.275113532440457</v>
       </c>
       <c r="D10">
-        <v>0.3271713286421374</v>
+        <v>0.3271713286421232</v>
       </c>
       <c r="E10">
-        <v>0.4285196072230804</v>
+        <v>0.4285196072230733</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.00326966949342</v>
+        <v>4.003269669493363</v>
       </c>
       <c r="H10">
         <v>2.806739730503921</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.190911547680926</v>
+        <v>1.19091154768094</v>
       </c>
       <c r="K10">
-        <v>0.817227027164023</v>
+        <v>0.8172270271640656</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.25241309893164</v>
+        <v>4.252413098931754</v>
       </c>
       <c r="C11">
-        <v>1.384398616496242</v>
+        <v>1.384398616495844</v>
       </c>
       <c r="D11">
-        <v>0.3547690188969312</v>
+        <v>0.354769018896647</v>
       </c>
       <c r="E11">
-        <v>0.4657566060395695</v>
+        <v>0.4657566060395908</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.307783077616875</v>
+        <v>4.307783077616904</v>
       </c>
       <c r="H11">
-        <v>3.008950539678125</v>
+        <v>3.008950539678139</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.291642366280001</v>
+        <v>1.29164236628003</v>
       </c>
       <c r="K11">
-        <v>0.8880285276276112</v>
+        <v>0.888028527627597</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.379558952496041</v>
+        <v>4.379558952495984</v>
       </c>
       <c r="C12">
-        <v>1.426590162915261</v>
+        <v>1.426590162915033</v>
       </c>
       <c r="D12">
-        <v>0.3654141263949526</v>
+        <v>0.36541412639464</v>
       </c>
       <c r="E12">
-        <v>0.4801627505633022</v>
+        <v>0.4801627505633235</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.425752054457178</v>
+        <v>4.425752054457064</v>
       </c>
       <c r="H12">
-        <v>3.087343144079085</v>
+        <v>3.087343144079071</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.330479675295422</v>
+        <v>1.330479675295379</v>
       </c>
       <c r="K12">
-        <v>0.9153998882477481</v>
+        <v>0.9153998882477623</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.352070848689038</v>
+        <v>4.352070848688982</v>
       </c>
       <c r="C13">
         <v>1.417464888908398</v>
       </c>
       <c r="D13">
-        <v>0.3631122554450599</v>
+        <v>0.363112255445202</v>
       </c>
       <c r="E13">
-        <v>0.4770455623737817</v>
+        <v>0.4770455623737462</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.400219181121457</v>
+        <v>4.400219181121486</v>
       </c>
       <c r="H13">
-        <v>3.070373536124222</v>
+        <v>3.070373536124251</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.322082312556006</v>
+        <v>1.32208231255602</v>
       </c>
       <c r="K13">
-        <v>0.909478231482808</v>
+        <v>0.9094782314828365</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.262826831629297</v>
+        <v>4.262826831629354</v>
       </c>
       <c r="C14">
-        <v>1.387852609971276</v>
+        <v>1.387852609971389</v>
       </c>
       <c r="D14">
-        <v>0.3556406843335367</v>
+        <v>0.3556406843339488</v>
       </c>
       <c r="E14">
-        <v>0.4669353372258982</v>
+        <v>0.4669353372258769</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.317432367330042</v>
+        <v>4.317432367330071</v>
       </c>
       <c r="H14">
-        <v>3.01536154265392</v>
+        <v>3.015361542653949</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.294822852059895</v>
+        <v>1.294822852059923</v>
       </c>
       <c r="K14">
-        <v>0.8902685061738396</v>
+        <v>0.8902685061738538</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.208461874225122</v>
+        <v>4.208461874225065</v>
       </c>
       <c r="C15">
-        <v>1.369824260818632</v>
+        <v>1.369824260818348</v>
       </c>
       <c r="D15">
-        <v>0.3510905688020358</v>
+        <v>0.35109056880205</v>
       </c>
       <c r="E15">
         <v>0.4607841003897235</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.267083635267738</v>
+        <v>4.267083635267767</v>
       </c>
       <c r="H15">
         <v>2.981912022944925</v>
@@ -933,7 +933,7 @@
         <v>1.278219965809072</v>
       </c>
       <c r="K15">
-        <v>0.878578304172251</v>
+        <v>0.8785783041722937</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.901184456098861</v>
+        <v>3.901184456099145</v>
       </c>
       <c r="C16">
-        <v>1.268075884864288</v>
+        <v>1.268075884864516</v>
       </c>
       <c r="D16">
-        <v>0.3253929823081876</v>
+        <v>0.3253929823085571</v>
       </c>
       <c r="E16">
-        <v>0.4261255838968339</v>
+        <v>0.4261255838968978</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.983714617298091</v>
+        <v>3.983714617298034</v>
       </c>
       <c r="H16">
-        <v>2.793761729784734</v>
+        <v>2.79376172978472</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.184418174915336</v>
+        <v>1.184418174915351</v>
       </c>
       <c r="K16">
-        <v>0.8126724637237004</v>
+        <v>0.812672463723743</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.716155514531579</v>
+        <v>3.716155514531636</v>
       </c>
       <c r="C17">
-        <v>1.206929374777474</v>
+        <v>1.206929374777644</v>
       </c>
       <c r="D17">
-        <v>0.3099365665678562</v>
+        <v>0.3099365665678135</v>
       </c>
       <c r="E17">
-        <v>0.4053456618754936</v>
+        <v>0.4053456618755291</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.814106661237162</v>
+        <v>3.81410666123719</v>
       </c>
       <c r="H17">
-        <v>2.681238770062791</v>
+        <v>2.681238770062805</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.127967161848034</v>
+        <v>1.127967161848019</v>
       </c>
       <c r="K17">
         <v>0.7731255166482143</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.61088657681222</v>
+        <v>3.610886576811822</v>
       </c>
       <c r="C18">
-        <v>1.172181620605954</v>
+        <v>1.172181620605841</v>
       </c>
       <c r="D18">
-        <v>0.3011491702888947</v>
+        <v>0.3011491702890936</v>
       </c>
       <c r="E18">
-        <v>0.3935536966760509</v>
+        <v>0.3935536966759585</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.717968547779975</v>
+        <v>3.717968547780032</v>
       </c>
       <c r="H18">
         <v>2.617490746227062</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.095861083027984</v>
+        <v>1.095861083028069</v>
       </c>
       <c r="K18">
-        <v>0.7506727060930061</v>
+        <v>0.7506727060929705</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.575431785148737</v>
+        <v>3.575431785148567</v>
       </c>
       <c r="C19">
-        <v>1.160485075480722</v>
+        <v>1.160485075480267</v>
       </c>
       <c r="D19">
-        <v>0.2981906142996849</v>
+        <v>0.2981906142997275</v>
       </c>
       <c r="E19">
-        <v>0.3895871280288574</v>
+        <v>0.3895871280287722</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.685648707135158</v>
+        <v>3.685648707135101</v>
       </c>
       <c r="H19">
-        <v>2.596065387070965</v>
+        <v>2.596065387070951</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>1.085049431446237</v>
       </c>
       <c r="K19">
-        <v>0.743118205950303</v>
+        <v>0.7431182059502532</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.735730011931423</v>
+        <v>3.735730011931537</v>
       </c>
       <c r="C20">
-        <v>1.213393860069004</v>
+        <v>1.213393860069232</v>
       </c>
       <c r="D20">
-        <v>0.311571070100257</v>
+        <v>0.3115710701002143</v>
       </c>
       <c r="E20">
-        <v>0.4075407857939339</v>
+        <v>0.407540785793941</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,16 +1114,16 @@
         <v>3.832012202351848</v>
       </c>
       <c r="H20">
-        <v>2.693114393019926</v>
+        <v>2.693114393019968</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.133938062559693</v>
+        <v>1.133938062559736</v>
       </c>
       <c r="K20">
-        <v>0.7773043029056907</v>
+        <v>0.7773043029057334</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.288976718416791</v>
+        <v>4.28897671841662</v>
       </c>
       <c r="C21">
-        <v>1.396527221065412</v>
+        <v>1.39652722106598</v>
       </c>
       <c r="D21">
-        <v>0.357829686725367</v>
+        <v>0.3578296867255943</v>
       </c>
       <c r="E21">
-        <v>0.4698961793440404</v>
+        <v>0.4698961793439906</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,16 +1152,16 @@
         <v>4.341672799961486</v>
       </c>
       <c r="H21">
-        <v>3.03146782067401</v>
+        <v>3.031467820673996</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.302809703014603</v>
+        <v>1.302809703014574</v>
       </c>
       <c r="K21">
-        <v>0.8958947564992457</v>
+        <v>0.8958947564992599</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>4.663623815644996</v>
       </c>
       <c r="C22">
-        <v>1.521013217934069</v>
+        <v>1.521013217934467</v>
       </c>
       <c r="D22">
-        <v>0.3892163963841995</v>
+        <v>0.3892163963844268</v>
       </c>
       <c r="E22">
         <v>0.5124622498101346</v>
@@ -1190,7 +1190,7 @@
         <v>4.690519904219997</v>
       </c>
       <c r="H22">
-        <v>3.263392003425466</v>
+        <v>3.263392003425452</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>1.417291070520989</v>
       </c>
       <c r="K22">
-        <v>0.9767287729938801</v>
+        <v>0.9767287729938516</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.462321063255786</v>
+        <v>4.462321063255729</v>
       </c>
       <c r="C23">
-        <v>1.454077336087551</v>
+        <v>1.454077336087266</v>
       </c>
       <c r="D23">
-        <v>0.3723462032788376</v>
+        <v>0.3723462032786813</v>
       </c>
       <c r="E23">
-        <v>0.4895569791526739</v>
+        <v>0.4895569791526384</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.502721960300335</v>
+        <v>4.502721960300306</v>
       </c>
       <c r="H23">
-        <v>3.138507031873417</v>
+        <v>3.138507031873402</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>1.355766047027458</v>
       </c>
       <c r="K23">
-        <v>0.9332428193488056</v>
+        <v>0.9332428193488482</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.726876963391248</v>
+        <v>3.726876963391135</v>
       </c>
       <c r="C24">
-        <v>1.210470011782093</v>
+        <v>1.210470011782206</v>
       </c>
       <c r="D24">
-        <v>0.3108318060853463</v>
+        <v>0.310831806085389</v>
       </c>
       <c r="E24">
-        <v>0.4065478924336077</v>
+        <v>0.4065478924336503</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.823912867025996</v>
+        <v>3.823912867025911</v>
       </c>
       <c r="H24">
-        <v>2.687742508959218</v>
+        <v>2.68774250895919</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.131237542371863</v>
+        <v>1.131237542371892</v>
       </c>
       <c r="K24">
-        <v>0.7754141987066987</v>
+        <v>0.7754141987067129</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.976694442941721</v>
+        <v>2.976694442941891</v>
       </c>
       <c r="C25">
         <v>0.9634543738645789</v>
       </c>
       <c r="D25">
-        <v>0.2483156244753815</v>
+        <v>0.2483156244753673</v>
       </c>
       <c r="E25">
-        <v>0.3229875796385002</v>
+        <v>0.3229875796385642</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,16 +1304,16 @@
         <v>3.144660104938566</v>
       </c>
       <c r="H25">
-        <v>2.237887641220823</v>
+        <v>2.237887641220809</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.9025999419211104</v>
+        <v>0.9025999419210962</v>
       </c>
       <c r="K25">
-        <v>0.6161305715193635</v>
+        <v>0.6161305715193706</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_11/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.449740319143416</v>
+        <v>2.449664437681236</v>
       </c>
       <c r="C2">
-        <v>0.7907962289084196</v>
+        <v>0.7898971948049223</v>
       </c>
       <c r="D2">
-        <v>0.2045758375938789</v>
+        <v>0.204566580893129</v>
       </c>
       <c r="E2">
-        <v>0.2649933760350152</v>
+        <v>0.2650533854250199</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.676861442917314</v>
+        <v>0.8658655119123324</v>
       </c>
       <c r="H2">
-        <v>1.928973928741442</v>
+        <v>1.806396847902562</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.923508129187738</v>
       </c>
       <c r="J2">
-        <v>0.7422232224247409</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5053052327865188</v>
+        <v>0.7419625233897307</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.5051714267555738</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.103839590928544</v>
+        <v>2.103831898739656</v>
       </c>
       <c r="C3">
-        <v>0.6778265660080081</v>
+        <v>0.6770663473811283</v>
       </c>
       <c r="D3">
-        <v>0.1759594180245045</v>
+        <v>0.1759539036661408</v>
       </c>
       <c r="E3">
-        <v>0.2272584778323861</v>
+        <v>0.2273133508445397</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.374744973825045</v>
+        <v>0.762175272004896</v>
       </c>
       <c r="H3">
-        <v>1.729968756357337</v>
+        <v>1.609136354966367</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.725168494076556</v>
       </c>
       <c r="J3">
-        <v>0.6370461925769604</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4330534627872211</v>
+        <v>0.6368376209620479</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.4329442914604797</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.895717120830881</v>
+        <v>1.895741718526637</v>
       </c>
       <c r="C4">
-        <v>0.6099878353042243</v>
+        <v>0.6093086307693056</v>
       </c>
       <c r="D4">
-        <v>0.1587837127081002</v>
+        <v>0.1587800558190651</v>
       </c>
       <c r="E4">
-        <v>0.2046886862072057</v>
+        <v>0.2047400593747284</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.195147950103362</v>
+        <v>0.7004456602737008</v>
       </c>
       <c r="H4">
-        <v>1.611894645491759</v>
+        <v>1.491967740120373</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.60749424590233</v>
       </c>
       <c r="J4">
-        <v>0.5737980955741335</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3897779022044858</v>
+        <v>0.5736183343693142</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.3896824327182884</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.81181079760367</v>
+        <v>1.811846496799291</v>
       </c>
       <c r="C5">
-        <v>0.5826652340037413</v>
+        <v>0.5820181530019966</v>
       </c>
       <c r="D5">
-        <v>0.1518691388875766</v>
+        <v>0.1518661481887875</v>
       </c>
       <c r="E5">
-        <v>0.195619333603176</v>
+        <v>0.1956692128066919</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.12325414769397</v>
+        <v>0.6757127603751769</v>
       </c>
       <c r="H5">
-        <v>1.564683329119788</v>
+        <v>1.445088085721764</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.560444084164644</v>
       </c>
       <c r="J5">
-        <v>0.5483062292986887</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3723741810173493</v>
+        <v>0.5481375263526829</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.3722840002550143</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.797928359868621</v>
+        <v>1.797965787573219</v>
       </c>
       <c r="C6">
-        <v>0.5781461316680634</v>
+        <v>0.577504335534627</v>
       </c>
       <c r="D6">
-        <v>0.1507256932117969</v>
+        <v>0.1507228081774912</v>
       </c>
       <c r="E6">
-        <v>0.1941204874750966</v>
+        <v>0.1941701150074024</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.111389139185775</v>
+        <v>0.6716296311752075</v>
       </c>
       <c r="H6">
-        <v>1.556895021057102</v>
+        <v>1.437352715217202</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.552682438595482</v>
       </c>
       <c r="J6">
-        <v>0.5440889431477842</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3694971407777956</v>
+        <v>0.5439220384458068</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.3694078220532901</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.894582072558762</v>
+        <v>1.894606827873076</v>
       </c>
       <c r="C7">
-        <v>0.6096181246450953</v>
+        <v>0.6089393567358456</v>
       </c>
       <c r="D7">
-        <v>0.158690135792412</v>
+        <v>0.158686488231055</v>
       </c>
       <c r="E7">
-        <v>0.2045658836941371</v>
+        <v>0.2046172369651202</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.194173366401984</v>
+        <v>0.70011047391489</v>
       </c>
       <c r="H7">
-        <v>1.61125443588034</v>
+        <v>1.491332149104906</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.606856216426024</v>
       </c>
       <c r="J7">
-        <v>0.5734532258162446</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3895423047531992</v>
+        <v>0.5732736163610284</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.3894469077102869</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.329483122013016</v>
+        <v>2.32943296868973</v>
       </c>
       <c r="C8">
-        <v>0.7514886924547</v>
+        <v>0.7506385079639415</v>
       </c>
       <c r="D8">
-        <v>0.1946176303514164</v>
+        <v>0.194609768503085</v>
       </c>
       <c r="E8">
-        <v>0.25184343437585</v>
+        <v>0.2519017574683815</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.571344860226901</v>
+        <v>0.8296701234886257</v>
       </c>
       <c r="H8">
-        <v>1.859419987930977</v>
+        <v>1.737481603200294</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.854185755117044</v>
       </c>
       <c r="J8">
-        <v>0.705648501607044</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4801403765882739</v>
+        <v>0.7054065182110492</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.4800154015402285</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.224756432203776</v>
+        <v>3.224464255042164</v>
       </c>
       <c r="C9">
-        <v>1.044973827634578</v>
+        <v>1.04374483350125</v>
       </c>
       <c r="D9">
-        <v>0.268958436161725</v>
+        <v>0.2689377037225</v>
       </c>
       <c r="E9">
-        <v>0.350491328274984</v>
+        <v>0.3505594431969854</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.367660375876028</v>
+        <v>1.102426416789712</v>
       </c>
       <c r="H9">
-        <v>2.385423114575161</v>
+        <v>2.25799876548578</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.378457714000987</v>
       </c>
       <c r="J9">
-        <v>0.9781606338452491</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.668607213524588</v>
+        <v>0.9777643951951376</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.6684094227679793</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.92246264431418</v>
+        <v>3.921901311370505</v>
       </c>
       <c r="C10">
-        <v>1.275113532440457</v>
+        <v>1.273564402101329</v>
       </c>
       <c r="D10">
-        <v>0.3271713286421232</v>
+        <v>0.3271363409050139</v>
       </c>
       <c r="E10">
-        <v>0.4285196072230733</v>
+        <v>0.4285904120647572</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.003269669493363</v>
+        <v>1.319618834976581</v>
       </c>
       <c r="H10">
-        <v>2.806739730503921</v>
+        <v>2.674007552538939</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.798409063016919</v>
       </c>
       <c r="J10">
-        <v>1.19091154768094</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8172270271640656</v>
+        <v>1.190371082930625</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.8169604155736891</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.252413098931754</v>
+        <v>4.251699416222721</v>
       </c>
       <c r="C11">
-        <v>1.384398616495844</v>
+        <v>1.382690070713352</v>
       </c>
       <c r="D11">
-        <v>0.354769018896647</v>
+        <v>0.3547258836793361</v>
       </c>
       <c r="E11">
-        <v>0.4657566060395908</v>
+        <v>0.4658269437500593</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.307783077616904</v>
+        <v>1.423552086293057</v>
       </c>
       <c r="H11">
-        <v>3.008950539678139</v>
+        <v>2.873435387372439</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.999967623198032</v>
       </c>
       <c r="J11">
-        <v>1.29164236628003</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.888028527627597</v>
+        <v>1.291026152496457</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.8877253175939614</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.379558952495984</v>
+        <v>4.378782155880913</v>
       </c>
       <c r="C12">
-        <v>1.426590162915033</v>
+        <v>1.424818752870522</v>
       </c>
       <c r="D12">
-        <v>0.36541412639464</v>
+        <v>0.3653675960905076</v>
       </c>
       <c r="E12">
-        <v>0.4801627505633235</v>
+        <v>0.4802325827957787</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.425752054457064</v>
+        <v>1.46379777867125</v>
       </c>
       <c r="H12">
-        <v>3.087343144079071</v>
+        <v>2.950712082617343</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.078107581673791</v>
       </c>
       <c r="J12">
-        <v>1.330479675295379</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9153998882477623</v>
+        <v>1.329832939185664</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.9150818340488627</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.352070848688982</v>
+        <v>4.351307907002479</v>
       </c>
       <c r="C13">
-        <v>1.417464888908398</v>
+        <v>1.415707138471646</v>
       </c>
       <c r="D13">
-        <v>0.363112255445202</v>
+        <v>0.3630664714562784</v>
       </c>
       <c r="E13">
-        <v>0.4770455623737462</v>
+        <v>0.477115519747187</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.400219181121486</v>
+        <v>1.45508793494804</v>
       </c>
       <c r="H13">
-        <v>3.070373536124251</v>
+        <v>2.933985726735983</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.061192658594251</v>
       </c>
       <c r="J13">
-        <v>1.32208231255602</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9094782314828365</v>
+        <v>1.321442238826137</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.9091634223219387</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.262826831629354</v>
+        <v>4.262108072651415</v>
       </c>
       <c r="C14">
-        <v>1.387852609971389</v>
+        <v>1.386138945767073</v>
       </c>
       <c r="D14">
-        <v>0.3556406843339488</v>
+        <v>0.3555972764859661</v>
       </c>
       <c r="E14">
-        <v>0.4669353372258769</v>
+        <v>0.467005640524647</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.317432367330071</v>
+        <v>1.426844355673751</v>
       </c>
       <c r="H14">
-        <v>3.015361542653949</v>
+        <v>2.8797558849989</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.006357961830432</v>
       </c>
       <c r="J14">
-        <v>1.294822852059923</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8902685061738538</v>
+        <v>1.2942041665451</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.8899640961590052</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.208461874225065</v>
+        <v>4.207769434011823</v>
       </c>
       <c r="C15">
-        <v>1.369824260818348</v>
+        <v>1.368137258033414</v>
       </c>
       <c r="D15">
-        <v>0.35109056880205</v>
+        <v>0.3510485736257181</v>
       </c>
       <c r="E15">
-        <v>0.4607841003897235</v>
+        <v>0.4608545697804516</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.267083635267767</v>
+        <v>1.409664990799598</v>
       </c>
       <c r="H15">
-        <v>2.981912022944925</v>
+        <v>2.84677707884012</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.973016265850305</v>
       </c>
       <c r="J15">
-        <v>1.278219965809072</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8785783041722937</v>
+        <v>1.277614128924398</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.8782801279030252</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.901184456099145</v>
+        <v>3.900632388234953</v>
       </c>
       <c r="C16">
-        <v>1.268075884864516</v>
+        <v>1.266536854116623</v>
       </c>
       <c r="D16">
-        <v>0.3253929823085571</v>
+        <v>0.3253584879577858</v>
       </c>
       <c r="E16">
-        <v>0.4261255838968978</v>
+        <v>0.4261963785370071</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.983714617298034</v>
+        <v>1.31294206321823</v>
       </c>
       <c r="H16">
-        <v>2.79376172978472</v>
+        <v>2.661203269483906</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.785472966872149</v>
       </c>
       <c r="J16">
-        <v>1.184418174915351</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.812672463723743</v>
+        <v>1.183882426171778</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.8124081196666566</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.716155514531636</v>
+        <v>3.71568118758421</v>
       </c>
       <c r="C17">
-        <v>1.206929374777644</v>
+        <v>1.205477260883242</v>
       </c>
       <c r="D17">
-        <v>0.3099365665678135</v>
+        <v>0.3099062033411144</v>
       </c>
       <c r="E17">
-        <v>0.4053456618755291</v>
+        <v>0.4054161701706249</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.81410666123719</v>
+        <v>1.255018768701774</v>
       </c>
       <c r="H17">
-        <v>2.681238770062805</v>
+        <v>2.55016052890079</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.673313640329567</v>
       </c>
       <c r="J17">
-        <v>1.127967161848019</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7731255166482143</v>
+        <v>1.127471571184287</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.7728804312487441</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.610886576811822</v>
+        <v>3.610454230593234</v>
       </c>
       <c r="C18">
-        <v>1.172181620605841</v>
+        <v>1.170778238726314</v>
       </c>
       <c r="D18">
-        <v>0.3011491702890936</v>
+        <v>0.3011210318725546</v>
       </c>
       <c r="E18">
-        <v>0.3935536966759585</v>
+        <v>0.3936238875524793</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.717968547780032</v>
+        <v>1.222175360946039</v>
       </c>
       <c r="H18">
-        <v>2.617490746227062</v>
+        <v>2.487229832302091</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.609771917250825</v>
       </c>
       <c r="J18">
-        <v>1.095861083028069</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7506727060929705</v>
+        <v>1.095387663324544</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.7504382161953771</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.575431785148567</v>
+        <v>3.575013213065517</v>
       </c>
       <c r="C19">
-        <v>1.160485075480267</v>
+        <v>1.159097990703458</v>
       </c>
       <c r="D19">
-        <v>0.2981906142997275</v>
+        <v>0.2981632050327931</v>
       </c>
       <c r="E19">
-        <v>0.3895871280287722</v>
+        <v>0.3896571873903198</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.685648707135101</v>
+        <v>1.211132150699683</v>
       </c>
       <c r="H19">
-        <v>2.596065387070951</v>
+        <v>2.466075610222134</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.588415949687402</v>
       </c>
       <c r="J19">
-        <v>1.085049431446237</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7431182059502532</v>
+        <v>1.08458336933549</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.7428872266643296</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.735730011931537</v>
+        <v>3.735247699497336</v>
       </c>
       <c r="C20">
-        <v>1.213393860069232</v>
+        <v>1.211932627496822</v>
       </c>
       <c r="D20">
-        <v>0.3115710701002143</v>
+        <v>0.3115402832195002</v>
       </c>
       <c r="E20">
-        <v>0.407540785793941</v>
+        <v>0.4076113409121902</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.832012202351848</v>
+        <v>1.261134891725447</v>
       </c>
       <c r="H20">
-        <v>2.693114393019968</v>
+        <v>2.561882165732925</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.685150856657287</v>
       </c>
       <c r="J20">
-        <v>1.133938062559736</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7773043029057334</v>
+        <v>1.133438295383556</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.7770572186601044</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.28897671841662</v>
+        <v>4.288245139475066</v>
       </c>
       <c r="C21">
-        <v>1.39652722106598</v>
+        <v>1.394800680186563</v>
       </c>
       <c r="D21">
-        <v>0.3578296867255943</v>
+        <v>0.3577855900190769</v>
       </c>
       <c r="E21">
-        <v>0.4698961793439906</v>
+        <v>0.4699663907735712</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.341672799961486</v>
+        <v>1.435114728323498</v>
       </c>
       <c r="H21">
-        <v>3.031467820673996</v>
+        <v>2.895634190259187</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.022412327639273</v>
       </c>
       <c r="J21">
-        <v>1.302809703014574</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8958947564992599</v>
+        <v>1.30218478865649</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.8955873208459764</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.663623815644996</v>
+        <v>4.662696968001114</v>
       </c>
       <c r="C22">
-        <v>1.521013217934467</v>
+        <v>1.519098386862254</v>
       </c>
       <c r="D22">
-        <v>0.3892163963844268</v>
+        <v>0.3891617464533255</v>
       </c>
       <c r="E22">
-        <v>0.5124622498101346</v>
+        <v>0.5125302595235937</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.690519904219997</v>
+        <v>1.554090548876388</v>
       </c>
       <c r="H22">
-        <v>3.263392003425452</v>
+        <v>3.124183984970387</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.253589141787785</v>
       </c>
       <c r="J22">
-        <v>1.417291070520989</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9767287729938516</v>
+        <v>1.416573399393371</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.9763759972133812</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.462321063255729</v>
+        <v>4.461501847574766</v>
       </c>
       <c r="C23">
-        <v>1.454077336087266</v>
+        <v>1.452264568140492</v>
       </c>
       <c r="D23">
-        <v>0.3723462032786813</v>
+        <v>0.3722973844361093</v>
       </c>
       <c r="E23">
-        <v>0.4895569791526384</v>
+        <v>0.489626380902088</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.502721960300306</v>
+        <v>1.490051283201154</v>
       </c>
       <c r="H23">
-        <v>3.138507031873402</v>
+        <v>3.001136995243826</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.129106602561521</v>
       </c>
       <c r="J23">
-        <v>1.355766047027458</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9332428193488482</v>
+        <v>1.355099038103504</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.9329148740170297</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.726876963391135</v>
+        <v>3.726398269567028</v>
       </c>
       <c r="C24">
-        <v>1.210470011782206</v>
+        <v>1.209012905581631</v>
       </c>
       <c r="D24">
-        <v>0.310831806085389</v>
+        <v>0.3108012112017065</v>
       </c>
       <c r="E24">
-        <v>0.4065478924336503</v>
+        <v>0.4066184268530861</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.823912867025911</v>
+        <v>1.258368378572726</v>
       </c>
       <c r="H24">
-        <v>2.68774250895919</v>
+        <v>2.556580003012755</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.679796344733148</v>
       </c>
       <c r="J24">
-        <v>1.131237542371892</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7754141987067129</v>
+        <v>1.130739666224031</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.7751680196076904</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.976694442941891</v>
+        <v>2.976480940773342</v>
       </c>
       <c r="C25">
-        <v>0.9634543738645789</v>
+        <v>0.9623338668281178</v>
       </c>
       <c r="D25">
-        <v>0.2483156244753673</v>
+        <v>0.2482990446203956</v>
       </c>
       <c r="E25">
-        <v>0.3229875796385642</v>
+        <v>0.3230536456652047</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.144660104938566</v>
+        <v>1.026128487137413</v>
       </c>
       <c r="H25">
-        <v>2.237887641220809</v>
+        <v>2.112144214973526</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.231403835256543</v>
       </c>
       <c r="J25">
-        <v>0.9025999419210962</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6161305715193706</v>
+        <v>0.9022498890950033</v>
       </c>
       <c r="L25">
+        <v>0.615954626419537</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_11/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.449664437681236</v>
+        <v>4.599559502042041</v>
       </c>
       <c r="C2">
-        <v>0.7898971948049223</v>
+        <v>1.302929712004925</v>
       </c>
       <c r="D2">
-        <v>0.204566580893129</v>
+        <v>0.3041573918683014</v>
       </c>
       <c r="E2">
-        <v>0.2650533854250199</v>
+        <v>0.07408103006689615</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.8658655119123324</v>
+        <v>0.0008343935735976055</v>
       </c>
       <c r="H2">
-        <v>1.806396847902562</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.923508129187738</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.01497067608457492</v>
       </c>
       <c r="K2">
-        <v>0.7419625233897307</v>
+        <v>1.343742591370528</v>
       </c>
       <c r="L2">
-        <v>0.5051714267555738</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>1.265410155510722</v>
+      </c>
+      <c r="N2">
+        <v>4.527485940395849</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.103831898739656</v>
+        <v>4.027221777697434</v>
       </c>
       <c r="C3">
-        <v>0.6770663473811283</v>
+        <v>1.138349356838091</v>
       </c>
       <c r="D3">
-        <v>0.1759539036661408</v>
+        <v>0.2802677876176176</v>
       </c>
       <c r="E3">
-        <v>0.2273133508445397</v>
+        <v>0.06973294953764153</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.762175272004896</v>
+        <v>0.0008483731718737557</v>
       </c>
       <c r="H3">
-        <v>1.609136354966367</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.725168494076556</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0149139297050418</v>
       </c>
       <c r="K3">
-        <v>0.6368376209620479</v>
+        <v>1.175855035487714</v>
       </c>
       <c r="L3">
-        <v>0.4329442914604797</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>1.118427487779833</v>
+      </c>
+      <c r="N3">
+        <v>4.278405397242352</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.895741718526637</v>
+        <v>3.687709617570761</v>
       </c>
       <c r="C4">
-        <v>0.6093086307693056</v>
+        <v>1.040890720693369</v>
       </c>
       <c r="D4">
-        <v>0.1587800558190651</v>
+        <v>0.2663133429773694</v>
       </c>
       <c r="E4">
-        <v>0.2047400593747284</v>
+        <v>0.06722116971126724</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7004456602737008</v>
+        <v>0.0008571045513092734</v>
       </c>
       <c r="H4">
-        <v>1.491967740120373</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.60749424590233</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.01489723965583245</v>
       </c>
       <c r="K4">
-        <v>0.5736183343693142</v>
+        <v>1.076310375902068</v>
       </c>
       <c r="L4">
-        <v>0.3896824327182884</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>1.031488253039257</v>
+      </c>
+      <c r="N4">
+        <v>4.130269436842809</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.811846496799291</v>
+        <v>3.551937289296745</v>
       </c>
       <c r="C5">
-        <v>0.5820181530019966</v>
+        <v>1.001952435241833</v>
       </c>
       <c r="D5">
-        <v>0.1518661481887875</v>
+        <v>0.260786437911861</v>
       </c>
       <c r="E5">
-        <v>0.1956692128066919</v>
+        <v>0.06623336709398941</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.6757127603751769</v>
+        <v>0.0008607049867743763</v>
       </c>
       <c r="H5">
-        <v>1.445088085721764</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.560444084164644</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.01489475432888021</v>
       </c>
       <c r="K5">
-        <v>0.5481375263526829</v>
+        <v>1.03651184657636</v>
       </c>
       <c r="L5">
-        <v>0.3722840002550143</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.9967816332877035</v>
+      </c>
+      <c r="N5">
+        <v>4.070952181059511</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.797965787573219</v>
+        <v>3.529537223322166</v>
       </c>
       <c r="C6">
-        <v>0.577504335534627</v>
+        <v>0.995530272497092</v>
       </c>
       <c r="D6">
-        <v>0.1507228081774912</v>
+        <v>0.259877806794961</v>
       </c>
       <c r="E6">
-        <v>0.1941701150074024</v>
+        <v>0.0660713971179625</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.6716296311752075</v>
+        <v>0.0008613055320033479</v>
       </c>
       <c r="H6">
-        <v>1.437352715217202</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.552682438595482</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.01489459564054307</v>
       </c>
       <c r="K6">
-        <v>0.5439220384458068</v>
+        <v>1.029946323677478</v>
       </c>
       <c r="L6">
-        <v>0.3694078220532901</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.9910592557152924</v>
+      </c>
+      <c r="N6">
+        <v>4.061161710679045</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.894606827873076</v>
+        <v>3.68586859955542</v>
       </c>
       <c r="C7">
-        <v>0.6089393567358456</v>
+        <v>1.040362595979616</v>
       </c>
       <c r="D7">
-        <v>0.158686488231055</v>
+        <v>0.2662381832909659</v>
       </c>
       <c r="E7">
-        <v>0.2046172369651202</v>
+        <v>0.06720770790663622</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.70011047391489</v>
+        <v>0.0008571529302648271</v>
       </c>
       <c r="H7">
-        <v>1.491332149104906</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.606856216426024</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.01489718896801229</v>
       </c>
       <c r="K7">
-        <v>0.5732736163610284</v>
+        <v>1.075770686355682</v>
       </c>
       <c r="L7">
-        <v>0.3894469077102869</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1.031017400568693</v>
+      </c>
+      <c r="N7">
+        <v>4.129465409856721</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.32943296868973</v>
+        <v>4.399481518259165</v>
       </c>
       <c r="C8">
-        <v>0.7506385079639415</v>
+        <v>1.245354686986957</v>
       </c>
       <c r="D8">
-        <v>0.194609768503085</v>
+        <v>0.2957593212235707</v>
       </c>
       <c r="E8">
-        <v>0.2519017574683815</v>
+        <v>0.07254648630460636</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.8296701234886257</v>
+        <v>0.0008391863563697844</v>
       </c>
       <c r="H8">
-        <v>1.737481603200294</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.854185755117044</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.01494718230641112</v>
       </c>
       <c r="K8">
-        <v>0.7054065182110492</v>
+        <v>1.285041228604911</v>
       </c>
       <c r="L8">
-        <v>0.4800154015402285</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1.213972952532828</v>
+      </c>
+      <c r="N8">
+        <v>4.44050544332211</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.224464255042164</v>
+        <v>5.915192576830975</v>
       </c>
       <c r="C9">
-        <v>1.04374483350125</v>
+        <v>1.68261572343124</v>
       </c>
       <c r="D9">
-        <v>0.2689377037225</v>
+        <v>0.3603678606836667</v>
       </c>
       <c r="E9">
-        <v>0.3505594431969854</v>
+        <v>0.08447876130976795</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.102426416789712</v>
+        <v>0.0008048554041858897</v>
       </c>
       <c r="H9">
-        <v>2.25799876548578</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2.378457714000987</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.01520248262851531</v>
       </c>
       <c r="K9">
-        <v>0.9777643951951376</v>
+        <v>1.730037885239241</v>
       </c>
       <c r="L9">
-        <v>0.6684094227679793</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.604848047163756</v>
+      </c>
+      <c r="N9">
+        <v>5.096860395994753</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.921901311370505</v>
+        <v>7.136643147857001</v>
       </c>
       <c r="C10">
-        <v>1.273564402101329</v>
+        <v>2.036837309403211</v>
       </c>
       <c r="D10">
-        <v>0.3271363409050139</v>
+        <v>0.4137119925217405</v>
       </c>
       <c r="E10">
-        <v>0.4285904120647572</v>
+        <v>0.09449163255391824</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.319618834976581</v>
+        <v>0.0007797249289527234</v>
       </c>
       <c r="H10">
-        <v>2.674007552538939</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.798409063016919</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.01550838029513812</v>
       </c>
       <c r="K10">
-        <v>1.190371082930625</v>
+        <v>2.089146065105254</v>
       </c>
       <c r="L10">
-        <v>0.8169604155736891</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.921486008491442</v>
+      </c>
+      <c r="N10">
+        <v>5.621339490095579</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.251699416222721</v>
+        <v>7.726445491432003</v>
       </c>
       <c r="C11">
-        <v>1.382690070713352</v>
+        <v>2.208482999775299</v>
       </c>
       <c r="D11">
-        <v>0.3547258836793361</v>
+        <v>0.4397718721499473</v>
       </c>
       <c r="E11">
-        <v>0.4658269437500593</v>
+        <v>0.09942007997135249</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.423552086293057</v>
+        <v>0.0007681806941029858</v>
       </c>
       <c r="H11">
-        <v>2.873435387372439</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.999967623198032</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.01567977563819589</v>
       </c>
       <c r="K11">
-        <v>1.291026152496457</v>
+        <v>2.2627122910027</v>
       </c>
       <c r="L11">
-        <v>0.8877253175939614</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2.074802074141942</v>
+      </c>
+      <c r="N11">
+        <v>5.873126866473626</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.378782155880913</v>
+        <v>7.955855863573106</v>
       </c>
       <c r="C12">
-        <v>1.424818752870522</v>
+        <v>2.27535434140276</v>
       </c>
       <c r="D12">
-        <v>0.3653675960905076</v>
+        <v>0.4499536329863929</v>
       </c>
       <c r="E12">
-        <v>0.4802325827957787</v>
+        <v>0.1013511470580326</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.46379777867125</v>
+        <v>0.0007637788851929464</v>
       </c>
       <c r="H12">
-        <v>2.950712082617343</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>3.078107581673791</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.01575002275410675</v>
       </c>
       <c r="K12">
-        <v>1.329832939185664</v>
+        <v>2.33025207289306</v>
       </c>
       <c r="L12">
-        <v>0.9150818340488627</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2.134502865216518</v>
+      </c>
+      <c r="N12">
+        <v>5.970799968634083</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.351307907002479</v>
+        <v>7.906157133412933</v>
       </c>
       <c r="C13">
-        <v>1.415707138471646</v>
+        <v>2.260862388464602</v>
       </c>
       <c r="D13">
-        <v>0.3630664714562784</v>
+        <v>0.4477458389964397</v>
       </c>
       <c r="E13">
-        <v>0.477115519747187</v>
+        <v>0.1009321718227625</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.45508793494804</v>
+        <v>0.0007647285004360519</v>
       </c>
       <c r="H13">
-        <v>2.933985726735983</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>3.061192658594251</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.01573464302305538</v>
       </c>
       <c r="K13">
-        <v>1.321442238826137</v>
+        <v>2.315619072729163</v>
       </c>
       <c r="L13">
-        <v>0.9091634223219387</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2.121566409501739</v>
+      </c>
+      <c r="N13">
+        <v>5.949652925526323</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.262108072651415</v>
+        <v>7.745190076982567</v>
       </c>
       <c r="C14">
-        <v>1.386138945767073</v>
+        <v>2.213944623415898</v>
       </c>
       <c r="D14">
-        <v>0.3555972764859661</v>
+        <v>0.4406028840270722</v>
       </c>
       <c r="E14">
-        <v>0.467005640524647</v>
+        <v>0.09957757915975307</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.426844355673751</v>
+        <v>0.0007678192538687068</v>
       </c>
       <c r="H14">
-        <v>2.8797558849989</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>3.006357961830432</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.01568544316173437</v>
       </c>
       <c r="K14">
-        <v>1.2942041665451</v>
+        <v>2.268230191784369</v>
       </c>
       <c r="L14">
-        <v>0.8899640961590052</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2.079678721126768</v>
+      </c>
+      <c r="N14">
+        <v>5.881113047701376</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.207769434011823</v>
+        <v>7.647421842852623</v>
       </c>
       <c r="C15">
-        <v>1.368137258033414</v>
+        <v>2.185462264228818</v>
       </c>
       <c r="D15">
-        <v>0.3510485736257181</v>
+        <v>0.4362703118023603</v>
       </c>
       <c r="E15">
-        <v>0.4608545697804516</v>
+        <v>0.09875665986358229</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.409664990799598</v>
+        <v>0.0007697080134895997</v>
       </c>
       <c r="H15">
-        <v>2.84677707884012</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.973016265850305</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.01565602656248544</v>
       </c>
       <c r="K15">
-        <v>1.277614128924398</v>
+        <v>2.239451062594895</v>
       </c>
       <c r="L15">
-        <v>0.8782801279030252</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2.054245753496104</v>
+      </c>
+      <c r="N15">
+        <v>5.839447812894946</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.900632388234953</v>
+        <v>7.098878125489875</v>
       </c>
       <c r="C16">
-        <v>1.266536854116623</v>
+        <v>2.025860331807735</v>
       </c>
       <c r="D16">
-        <v>0.3253584879577858</v>
+        <v>0.4120494679116007</v>
       </c>
       <c r="E16">
-        <v>0.4261963785370071</v>
+        <v>0.09417795155801301</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.31294206321823</v>
+        <v>0.0007804759788159199</v>
       </c>
       <c r="H16">
-        <v>2.661203269483906</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2.785472966872149</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.01549788474777536</v>
       </c>
       <c r="K16">
-        <v>1.183882426171778</v>
+        <v>2.078036283848107</v>
       </c>
       <c r="L16">
-        <v>0.8124081196666566</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.91167794220479</v>
+      </c>
+      <c r="N16">
+        <v>5.605184668351967</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.71568118758421</v>
+        <v>6.771853473195335</v>
       </c>
       <c r="C17">
-        <v>1.205477260883242</v>
+        <v>1.930873017752845</v>
       </c>
       <c r="D17">
-        <v>0.3099062033411144</v>
+        <v>0.3976857754432501</v>
       </c>
       <c r="E17">
-        <v>0.4054161701706249</v>
+        <v>0.09147183679705861</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.255018768701774</v>
+        <v>0.0007870439558354903</v>
       </c>
       <c r="H17">
-        <v>2.55016052890079</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2.673313640329567</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.01540958137538873</v>
       </c>
       <c r="K17">
-        <v>1.127471571184287</v>
+        <v>1.981849870269116</v>
       </c>
       <c r="L17">
-        <v>0.7728804312487441</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.826791610695921</v>
+      </c>
+      <c r="N17">
+        <v>5.465128371950073</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.610454230593234</v>
+        <v>6.586890235027056</v>
       </c>
       <c r="C18">
-        <v>1.170778238726314</v>
+        <v>1.877202005504557</v>
       </c>
       <c r="D18">
-        <v>0.3011210318725546</v>
+        <v>0.3895889873690095</v>
       </c>
       <c r="E18">
-        <v>0.3936238875524793</v>
+        <v>0.08994972043925742</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.222175360946039</v>
+        <v>0.0007908121242437145</v>
       </c>
       <c r="H18">
-        <v>2.487229832302091</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2.609771917250825</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.0153617756613329</v>
       </c>
       <c r="K18">
-        <v>1.095387663324544</v>
+        <v>1.927461850171596</v>
       </c>
       <c r="L18">
-        <v>0.7504382161953771</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.778818187011268</v>
+      </c>
+      <c r="N18">
+        <v>5.385783523975135</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.575013213065517</v>
+        <v>6.524771942526911</v>
       </c>
       <c r="C19">
-        <v>1.159097990703458</v>
+        <v>1.85918566019933</v>
       </c>
       <c r="D19">
-        <v>0.2981632050327931</v>
+        <v>0.3868743709694087</v>
       </c>
       <c r="E19">
-        <v>0.3896571873903198</v>
+        <v>0.0894399639574992</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.211132150699683</v>
+        <v>0.0007920866990500553</v>
       </c>
       <c r="H19">
-        <v>2.466075610222134</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2.588415949687402</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.01534608300587159</v>
       </c>
       <c r="K19">
-        <v>1.08458336933549</v>
+        <v>1.909198441424266</v>
       </c>
       <c r="L19">
-        <v>0.7428872266643296</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.762713055784673</v>
+      </c>
+      <c r="N19">
+        <v>5.359115308956319</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.735247699497336</v>
+        <v>6.806334067734383</v>
       </c>
       <c r="C20">
-        <v>1.211932627496822</v>
+        <v>1.940882541006545</v>
       </c>
       <c r="D20">
-        <v>0.3115402832195002</v>
+        <v>0.3991973936707467</v>
       </c>
       <c r="E20">
-        <v>0.4076113409121902</v>
+        <v>0.09175627814895293</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.261134891725447</v>
+        <v>0.0007863458645619584</v>
       </c>
       <c r="H20">
-        <v>2.561882165732925</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2.685150856657287</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.01541866797512625</v>
       </c>
       <c r="K20">
-        <v>1.133438295383556</v>
+        <v>1.991989963500842</v>
       </c>
       <c r="L20">
-        <v>0.7770572186601044</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.83573781916887</v>
+      </c>
+      <c r="N20">
+        <v>5.479909382646724</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.288245139475066</v>
+        <v>7.792294834520646</v>
       </c>
       <c r="C21">
-        <v>1.394800680186563</v>
+        <v>2.227671357310442</v>
       </c>
       <c r="D21">
-        <v>0.3577855900190769</v>
+        <v>0.4426919271277825</v>
       </c>
       <c r="E21">
-        <v>0.4699663907735712</v>
+        <v>0.0999735967361417</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.435114728323498</v>
+        <v>0.0007669123751472551</v>
       </c>
       <c r="H21">
-        <v>2.895634190259187</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>3.022412327639273</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.0156997428504706</v>
       </c>
       <c r="K21">
-        <v>1.30218478865649</v>
+        <v>2.282097046782113</v>
       </c>
       <c r="L21">
-        <v>0.8955873208459764</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>2.091934714320487</v>
+      </c>
+      <c r="N21">
+        <v>5.901177810095419</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.662696968001114</v>
+        <v>8.472781467238292</v>
       </c>
       <c r="C22">
-        <v>1.519098386862254</v>
+        <v>2.426258250508965</v>
       </c>
       <c r="D22">
-        <v>0.3891617464533255</v>
+        <v>0.4729813844783735</v>
       </c>
       <c r="E22">
-        <v>0.5125302595235937</v>
+        <v>0.1057288323355969</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.554090548876388</v>
+        <v>0.00075402590318631</v>
       </c>
       <c r="H22">
-        <v>3.124183984970387</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3.253589141787785</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.01591504922773979</v>
       </c>
       <c r="K22">
-        <v>1.416573399393371</v>
+        <v>2.482498744228295</v>
       </c>
       <c r="L22">
-        <v>0.9763759972133812</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2.26915495767031</v>
+      </c>
+      <c r="N22">
+        <v>6.190340591467702</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.461501847574766</v>
+        <v>8.105831641074417</v>
       </c>
       <c r="C23">
-        <v>1.452264568140492</v>
+        <v>2.319104046368466</v>
       </c>
       <c r="D23">
-        <v>0.3722973844361093</v>
+        <v>0.4566227938691725</v>
       </c>
       <c r="E23">
-        <v>0.489626380902088</v>
+        <v>0.1026175647019159</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.490051283201154</v>
+        <v>0.000760926232861587</v>
       </c>
       <c r="H23">
-        <v>3.001136995243826</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3.129106602561521</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.0157969631058652</v>
       </c>
       <c r="K23">
-        <v>1.355099038103504</v>
+        <v>2.374414756028912</v>
       </c>
       <c r="L23">
-        <v>0.9329148740170297</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2.173551312187257</v>
+      </c>
+      <c r="N23">
+        <v>6.034573186120497</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.726398269567028</v>
+        <v>6.790735981629552</v>
       </c>
       <c r="C24">
-        <v>1.209012905581631</v>
+        <v>1.936354338541264</v>
       </c>
       <c r="D24">
-        <v>0.3108012112017065</v>
+        <v>0.3985134933226817</v>
       </c>
       <c r="E24">
-        <v>0.4066184268530861</v>
+        <v>0.09162757815301958</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.258368378572726</v>
+        <v>0.0007866614949656513</v>
       </c>
       <c r="H24">
-        <v>2.556580003012755</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2.679796344733148</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.01541455075128439</v>
       </c>
       <c r="K24">
-        <v>1.130739666224031</v>
+        <v>1.987402815319555</v>
       </c>
       <c r="L24">
-        <v>0.7751680196076904</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.83169067894606</v>
+      </c>
+      <c r="N24">
+        <v>5.473223257642417</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.976480940773342</v>
+        <v>5.489295797085617</v>
       </c>
       <c r="C25">
-        <v>0.9623338668281178</v>
+        <v>1.559495290301584</v>
       </c>
       <c r="D25">
-        <v>0.2482990446203956</v>
+        <v>0.3420062755719897</v>
       </c>
       <c r="E25">
-        <v>0.3230536456652047</v>
+        <v>0.08106149617848146</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.026128487137413</v>
+        <v>0.0008140885546699851</v>
       </c>
       <c r="H25">
-        <v>2.112144214973526</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2.231403835256543</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.01511451662105756</v>
       </c>
       <c r="K25">
-        <v>0.9022498890950033</v>
+        <v>1.604929606415112</v>
       </c>
       <c r="L25">
-        <v>0.615954626419537</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>1.494758429455857</v>
+      </c>
+      <c r="N25">
+        <v>4.913039170048251</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_11/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.599559502042041</v>
+        <v>1.022766665238095</v>
       </c>
       <c r="C2">
-        <v>1.302929712004925</v>
+        <v>0.2123803799067616</v>
       </c>
       <c r="D2">
-        <v>0.3041573918683014</v>
+        <v>0.5523062842328557</v>
       </c>
       <c r="E2">
-        <v>0.07408103006689615</v>
+        <v>0.2465470090821285</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008343935735976055</v>
+        <v>0.0008156282344201059</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.4078366927606361</v>
       </c>
       <c r="J2">
-        <v>0.01497067608457492</v>
+        <v>0.1460339281780492</v>
       </c>
       <c r="K2">
-        <v>1.343742591370528</v>
+        <v>1.19197656065333</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.265410155510722</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>4.527485940395849</v>
+        <v>0.8625140507928624</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2.343738409989157</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.027221777697434</v>
+        <v>0.8882612241479251</v>
       </c>
       <c r="C3">
-        <v>1.138349356838091</v>
+        <v>0.1842990814414094</v>
       </c>
       <c r="D3">
-        <v>0.2802677876176176</v>
+        <v>0.4982970048147592</v>
       </c>
       <c r="E3">
-        <v>0.06973294953764153</v>
+        <v>0.2211621530193639</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008483731718737557</v>
+        <v>0.0008198910012862876</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4062247591512431</v>
       </c>
       <c r="J3">
-        <v>0.0149139297050418</v>
+        <v>0.1300350904669756</v>
       </c>
       <c r="K3">
-        <v>1.175855035487714</v>
+        <v>1.035033088864338</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.118427487779833</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>4.278405397242352</v>
+        <v>0.9073122961408577</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.27764395113681</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.687709617570761</v>
+        <v>0.8060363232247596</v>
       </c>
       <c r="C4">
-        <v>1.040890720693369</v>
+        <v>0.1671701247432367</v>
       </c>
       <c r="D4">
-        <v>0.2663133429773694</v>
+        <v>0.4657912366060941</v>
       </c>
       <c r="E4">
-        <v>0.06722116971126724</v>
+        <v>0.2058757513605727</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008571045513092734</v>
+        <v>0.0008225945703285324</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4060139011478547</v>
       </c>
       <c r="J4">
-        <v>0.01489723965583245</v>
+        <v>0.1203945821233674</v>
       </c>
       <c r="K4">
-        <v>1.076310375902068</v>
+        <v>0.9391385085322668</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.031488253039257</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>4.130269436842809</v>
+        <v>0.9359815998783292</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.241424374520108</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.551937289296745</v>
+        <v>0.7726047229872393</v>
       </c>
       <c r="C5">
-        <v>1.001952435241833</v>
+        <v>0.1602139909377058</v>
       </c>
       <c r="D5">
-        <v>0.260786437911861</v>
+        <v>0.4526976768170812</v>
       </c>
       <c r="E5">
-        <v>0.06623336709398941</v>
+        <v>0.1997159124260079</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008607049867743763</v>
+        <v>0.0008237183973874424</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4061154835420346</v>
       </c>
       <c r="J5">
-        <v>0.01489475432888021</v>
+        <v>0.1165080484007035</v>
       </c>
       <c r="K5">
-        <v>1.03651184657636</v>
+        <v>0.9001593928033174</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.9967816332877035</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>4.070952181059511</v>
+        <v>0.9479498750412736</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2.227707590924439</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.529537223322166</v>
+        <v>0.7670575733122007</v>
       </c>
       <c r="C6">
-        <v>0.995530272497092</v>
+        <v>0.159060260059988</v>
       </c>
       <c r="D6">
-        <v>0.259877806794961</v>
+        <v>0.450532386362454</v>
       </c>
       <c r="E6">
-        <v>0.0660713971179625</v>
+        <v>0.1986971054842073</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008613055320033479</v>
+        <v>0.000823906354923591</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4061434404443176</v>
       </c>
       <c r="J6">
-        <v>0.01489459564054307</v>
+        <v>0.1158651215959452</v>
       </c>
       <c r="K6">
-        <v>1.029946323677478</v>
+        <v>0.8936923583148939</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.9910592557152924</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>4.061161710679045</v>
+        <v>0.9499542278208288</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2.225491397473803</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.68586859955542</v>
+        <v>0.8055851660101325</v>
       </c>
       <c r="C7">
-        <v>1.040362595979616</v>
+        <v>0.1670762200892142</v>
       </c>
       <c r="D7">
-        <v>0.2662381832909659</v>
+        <v>0.4656140492097904</v>
       </c>
       <c r="E7">
-        <v>0.06720770790663622</v>
+        <v>0.2057924038612597</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008571529302648271</v>
+        <v>0.0008226096365636093</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.4060145226207297</v>
       </c>
       <c r="J7">
-        <v>0.01489718896801229</v>
+        <v>0.1203420017356081</v>
       </c>
       <c r="K7">
-        <v>1.075770686355682</v>
+        <v>0.9386124476222335</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.031017400568693</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>4.129465409856721</v>
+        <v>0.9361418622051856</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2.241235231491572</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.399481518259165</v>
+        <v>0.9763045332420859</v>
       </c>
       <c r="C8">
-        <v>1.245354686986957</v>
+        <v>0.2026717543198231</v>
       </c>
       <c r="D8">
-        <v>0.2957593212235707</v>
+        <v>0.5335401421412485</v>
       </c>
       <c r="E8">
-        <v>0.07254648630460636</v>
+        <v>0.237728358243551</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008391863563697844</v>
+        <v>0.0008170804032755948</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.4071140816475811</v>
       </c>
       <c r="J8">
-        <v>0.01494718230641112</v>
+        <v>0.1404771444932038</v>
       </c>
       <c r="K8">
-        <v>1.285041228604911</v>
+        <v>1.13775301940305</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.213972952532828</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>4.44050544332211</v>
+        <v>0.8777146941605753</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>2.320010109591266</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.915192576830975</v>
+        <v>1.314708037834919</v>
       </c>
       <c r="C9">
-        <v>1.68261572343124</v>
+        <v>0.2735860658146976</v>
       </c>
       <c r="D9">
-        <v>0.3603678606836667</v>
+        <v>0.6725396345857177</v>
       </c>
       <c r="E9">
-        <v>0.08447876130976795</v>
+        <v>0.303022999266048</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008048554041858897</v>
+        <v>0.0008069014489237697</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.4158498769073162</v>
       </c>
       <c r="J9">
-        <v>0.01520248262851531</v>
+        <v>0.1816030800397925</v>
       </c>
       <c r="K9">
-        <v>1.730037885239241</v>
+        <v>1.532938101471018</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.604848047163756</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>5.096860395994753</v>
+        <v>0.7727052946139672</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2.511700132750804</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.136643147857001</v>
+        <v>1.566680550461996</v>
       </c>
       <c r="C10">
-        <v>2.036837309403211</v>
+        <v>0.3266893479353996</v>
       </c>
       <c r="D10">
-        <v>0.4137119925217405</v>
+        <v>0.7790813686561364</v>
       </c>
       <c r="E10">
-        <v>0.09449163255391824</v>
+        <v>0.3530534500813687</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007797249289527234</v>
+        <v>0.0007997977435221119</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.4268716415580656</v>
       </c>
       <c r="J10">
-        <v>0.01550838029513812</v>
+        <v>0.2131040781955278</v>
       </c>
       <c r="K10">
-        <v>2.089146065105254</v>
+        <v>1.827563034960207</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.921486008491442</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>5.621339490095579</v>
+        <v>0.7018829981786556</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.679085554150618</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.726445491432003</v>
+        <v>1.682310972919879</v>
       </c>
       <c r="C11">
-        <v>2.208482999775299</v>
+        <v>0.3511440648494499</v>
       </c>
       <c r="D11">
-        <v>0.4397718721499473</v>
+        <v>0.8287224328120146</v>
       </c>
       <c r="E11">
-        <v>0.09942007997135249</v>
+        <v>0.3763646110382908</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007681806941029858</v>
+        <v>0.0007966403814292015</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.4330274235924492</v>
       </c>
       <c r="J11">
-        <v>0.01567977563819589</v>
+        <v>0.2277827681028839</v>
       </c>
       <c r="K11">
-        <v>2.2627122910027</v>
+        <v>1.962872240084181</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.074802074141942</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>5.873126866473626</v>
+        <v>0.6711573673442413</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.76192772104568</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.955855863573106</v>
+        <v>1.726266345414814</v>
       </c>
       <c r="C12">
-        <v>2.27535434140276</v>
+        <v>0.3604543500575517</v>
       </c>
       <c r="D12">
-        <v>0.4499536329863929</v>
+        <v>0.847708211137558</v>
       </c>
       <c r="E12">
-        <v>0.1013511470580326</v>
+        <v>0.3852806642300095</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007637788851929464</v>
+        <v>0.0007954548103086823</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.4355355081731247</v>
       </c>
       <c r="J12">
-        <v>0.01575002275410675</v>
+        <v>0.2333975498775658</v>
       </c>
       <c r="K12">
-        <v>2.33025207289306</v>
+        <v>2.01432564402387</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.134502865216518</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>5.970799968634083</v>
+        <v>0.6597478586765764</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.794344925370638</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.906157133412933</v>
+        <v>1.716791868831535</v>
       </c>
       <c r="C13">
-        <v>2.260862388464602</v>
+        <v>0.358446880199665</v>
       </c>
       <c r="D13">
-        <v>0.4477458389964397</v>
+        <v>0.8436106158910377</v>
       </c>
       <c r="E13">
-        <v>0.1009321718227625</v>
+        <v>0.383356336108065</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007647285004360519</v>
+        <v>0.0007957097073155708</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.434987259439751</v>
       </c>
       <c r="J13">
-        <v>0.01573464302305538</v>
+        <v>0.2321857000372773</v>
       </c>
       <c r="K13">
-        <v>2.315619072729163</v>
+        <v>2.003234173595558</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.121566409501739</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>5.949652925526323</v>
+        <v>0.6621948799890731</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.787315348349836</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.745190076982567</v>
+        <v>1.685923684617961</v>
       </c>
       <c r="C14">
-        <v>2.213944623415898</v>
+        <v>0.3519089870464711</v>
       </c>
       <c r="D14">
-        <v>0.4406028840270722</v>
+        <v>0.8302805273573028</v>
       </c>
       <c r="E14">
-        <v>0.09957757915975307</v>
+        <v>0.377096308425088</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007678192538687068</v>
+        <v>0.0007965426459561501</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.4332301404727446</v>
       </c>
       <c r="J14">
-        <v>0.01568544316173437</v>
+        <v>0.228243534718203</v>
       </c>
       <c r="K14">
-        <v>2.268230191784369</v>
+        <v>1.967100856619169</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.079678721126768</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>5.881113047701376</v>
+        <v>0.6702141117720402</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.764573225037083</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.647421842852623</v>
+        <v>1.667038732945571</v>
       </c>
       <c r="C15">
-        <v>2.185462264228818</v>
+        <v>0.3479110438847499</v>
       </c>
       <c r="D15">
-        <v>0.4362703118023603</v>
+        <v>0.8221405036289298</v>
       </c>
       <c r="E15">
-        <v>0.09875665986358229</v>
+        <v>0.3732736887170702</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007697080134895997</v>
+        <v>0.0007970541353578154</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.4321773052478193</v>
       </c>
       <c r="J15">
-        <v>0.01565602656248544</v>
+        <v>0.2258363645574946</v>
       </c>
       <c r="K15">
-        <v>2.239451062594895</v>
+        <v>1.94499706305362</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.054245753496104</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>5.839447812894946</v>
+        <v>0.6751558494030707</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.750781917292585</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.098878125489875</v>
+        <v>1.559146087612902</v>
       </c>
       <c r="C16">
-        <v>2.025860331807735</v>
+        <v>0.3250977511443978</v>
       </c>
       <c r="D16">
-        <v>0.4120494679116007</v>
+        <v>0.7758624254524022</v>
       </c>
       <c r="E16">
-        <v>0.09417795155801301</v>
+        <v>0.3515418927626897</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007804759788159199</v>
+        <v>0.0008000055254868012</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.4264933986217798</v>
       </c>
       <c r="J16">
-        <v>0.01549788474777536</v>
+        <v>0.2121523217420815</v>
       </c>
       <c r="K16">
-        <v>2.078036283848107</v>
+        <v>1.818748607033484</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.91167794220479</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>5.605184668351967</v>
+        <v>0.7039219390254985</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2.673813393773401</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.771853473195335</v>
+        <v>1.493231714380784</v>
       </c>
       <c r="C17">
-        <v>1.930873017752845</v>
+        <v>0.3111835944460211</v>
       </c>
       <c r="D17">
-        <v>0.3976857754432501</v>
+        <v>0.7477861558853078</v>
       </c>
       <c r="E17">
-        <v>0.09147183679705861</v>
+        <v>0.3383578805723317</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007870439558354903</v>
+        <v>0.0008018346788469118</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.4233077963647673</v>
       </c>
       <c r="J17">
-        <v>0.01540958137538873</v>
+        <v>0.2038511334461788</v>
       </c>
       <c r="K17">
-        <v>1.981849870269116</v>
+        <v>1.741648620409336</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.826791610695921</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>5.465128371950073</v>
+        <v>0.7219587239112908</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2.628368572929219</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.586890235027056</v>
+        <v>1.455412744728449</v>
       </c>
       <c r="C18">
-        <v>1.877202005504557</v>
+        <v>0.3032081141650451</v>
       </c>
       <c r="D18">
-        <v>0.3895889873690095</v>
+        <v>0.7317467823746711</v>
       </c>
       <c r="E18">
-        <v>0.08994972043925742</v>
+        <v>0.330826152998398</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007908121242437145</v>
+        <v>0.0008028937776072261</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.4215821826931219</v>
       </c>
       <c r="J18">
-        <v>0.0153617756613329</v>
+        <v>0.1991089380305624</v>
       </c>
       <c r="K18">
-        <v>1.927461850171596</v>
+        <v>1.697421543089661</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.778818187011268</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>5.385783523975135</v>
+        <v>0.7324727065168091</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2.602854960395547</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.524771942526911</v>
+        <v>1.44262320800317</v>
       </c>
       <c r="C19">
-        <v>1.85918566019933</v>
+        <v>0.3005122859109122</v>
       </c>
       <c r="D19">
-        <v>0.3868743709694087</v>
+        <v>0.726334356707639</v>
       </c>
       <c r="E19">
-        <v>0.0894399639574992</v>
+        <v>0.3282845921917072</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007920866990500553</v>
+        <v>0.0008032535935260543</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.4210158638106307</v>
       </c>
       <c r="J19">
-        <v>0.01534608300587159</v>
+        <v>0.197508702821878</v>
       </c>
       <c r="K19">
-        <v>1.909198441424266</v>
+        <v>1.682466534670169</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.762713055784673</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>5.359115308956319</v>
+        <v>0.7360562294218784</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2.594321400572397</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.806334067734383</v>
+        <v>1.50023859568671</v>
       </c>
       <c r="C20">
-        <v>1.940882541006545</v>
+        <v>0.3126618775076224</v>
       </c>
       <c r="D20">
-        <v>0.3991973936707467</v>
+        <v>0.7507634729907693</v>
       </c>
       <c r="E20">
-        <v>0.09175627814895293</v>
+        <v>0.339755960237035</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007863458645619584</v>
+        <v>0.0008016392402708476</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.4236357804666824</v>
       </c>
       <c r="J20">
-        <v>0.01541866797512625</v>
+        <v>0.2047314100130677</v>
       </c>
       <c r="K20">
-        <v>1.991989963500842</v>
+        <v>1.749843539106848</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.83573781916887</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>5.479909382646724</v>
+        <v>0.7200241410928534</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.633140977098407</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.792294834520646</v>
+        <v>1.694985642118922</v>
       </c>
       <c r="C21">
-        <v>2.227671357310442</v>
+        <v>0.3538279140545058</v>
       </c>
       <c r="D21">
-        <v>0.4426919271277825</v>
+        <v>0.8341906432959547</v>
       </c>
       <c r="E21">
-        <v>0.0999735967361417</v>
+        <v>0.3789325478159569</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007669123751472551</v>
+        <v>0.000796297723890577</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.4337413374880441</v>
       </c>
       <c r="J21">
-        <v>0.0156997428504706</v>
+        <v>0.2293998654272826</v>
       </c>
       <c r="K21">
-        <v>2.282097046782113</v>
+        <v>1.977708006098197</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.091934714320487</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>5.901177810095419</v>
+        <v>0.6678524529816858</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.771224032950954</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.472781467238292</v>
+        <v>1.823259535121196</v>
       </c>
       <c r="C22">
-        <v>2.426258250508965</v>
+        <v>0.3810263452287188</v>
       </c>
       <c r="D22">
-        <v>0.4729813844783735</v>
+        <v>0.8898195284433541</v>
       </c>
       <c r="E22">
-        <v>0.1057288323355969</v>
+        <v>0.4050581040174492</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.00075402590318631</v>
+        <v>0.0007928650185534635</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.441384407037269</v>
       </c>
       <c r="J22">
-        <v>0.01591504922773979</v>
+        <v>0.2458533876198601</v>
       </c>
       <c r="K22">
-        <v>2.482498744228295</v>
+        <v>2.127898162350107</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.26915495767031</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>6.190340591467702</v>
+        <v>0.6350761116854642</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.867613723405924</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.105831641074417</v>
+        <v>1.754697874004734</v>
       </c>
       <c r="C23">
-        <v>2.319104046368466</v>
+        <v>0.3664806544627766</v>
       </c>
       <c r="D23">
-        <v>0.4566227938691725</v>
+        <v>0.8600216626930148</v>
       </c>
       <c r="E23">
-        <v>0.1026175647019159</v>
+        <v>0.3910634469556982</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.000760926232861587</v>
+        <v>0.0007946919976272681</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.4372056368407655</v>
       </c>
       <c r="J23">
-        <v>0.0157969631058652</v>
+        <v>0.2370393633472361</v>
       </c>
       <c r="K23">
-        <v>2.374414756028912</v>
+        <v>2.04761221254401</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.173551312187257</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>6.034573186120497</v>
+        <v>0.6524447063526377</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.815577163221604</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.790735981629552</v>
+        <v>1.497070549451877</v>
       </c>
       <c r="C24">
-        <v>1.936354338541264</v>
+        <v>0.3119934716466446</v>
       </c>
       <c r="D24">
-        <v>0.3985134933226817</v>
+        <v>0.7494171114796302</v>
       </c>
       <c r="E24">
-        <v>0.09162757815301958</v>
+        <v>0.3391237397980973</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007866614949656513</v>
+        <v>0.0008017275746657757</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.42348717017002</v>
       </c>
       <c r="J24">
-        <v>0.01541455075128439</v>
+        <v>0.2043333431558807</v>
       </c>
       <c r="K24">
-        <v>1.987402815319555</v>
+        <v>1.746138311094342</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.83169067894606</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>5.473223257642417</v>
+        <v>0.720898317057479</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.630981469368123</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.489295797085617</v>
+        <v>1.222660343443181</v>
       </c>
       <c r="C25">
-        <v>1.559495290301584</v>
+        <v>0.254250815995789</v>
       </c>
       <c r="D25">
-        <v>0.3420062755719897</v>
+        <v>0.634228399887661</v>
       </c>
       <c r="E25">
-        <v>0.08106149617848146</v>
+        <v>0.2850306793205704</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008140885546699851</v>
+        <v>0.0008095870390828349</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.4127235307117729</v>
       </c>
       <c r="J25">
-        <v>0.01511451662105756</v>
+        <v>0.1702735268762936</v>
       </c>
       <c r="K25">
-        <v>1.604929606415112</v>
+        <v>1.425388108015198</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.494758429455857</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>4.913039170048251</v>
+        <v>0.8000399280463242</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>2.455476442347816</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_11/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.022766665238095</v>
+        <v>0.4834976253075638</v>
       </c>
       <c r="C2">
-        <v>0.2123803799067616</v>
+        <v>0.1023584793711052</v>
       </c>
       <c r="D2">
-        <v>0.5523062842328557</v>
+        <v>0.6596294088646744</v>
       </c>
       <c r="E2">
-        <v>0.2465470090821285</v>
+        <v>0.2690594927575418</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008156282344201059</v>
+        <v>0.002490110008369273</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4078366927606361</v>
+        <v>0.8656079116674604</v>
       </c>
       <c r="J2">
-        <v>0.1460339281780492</v>
+        <v>0.1400508006420935</v>
       </c>
       <c r="K2">
-        <v>1.19197656065333</v>
+        <v>0.5661745446029727</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8625140507928624</v>
+        <v>1.834853718740516</v>
       </c>
       <c r="O2">
-        <v>2.343738409989157</v>
+        <v>4.527969484952138</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8882612241479251</v>
+        <v>0.4462465166549805</v>
       </c>
       <c r="C3">
-        <v>0.1842990814414094</v>
+        <v>0.09482582727186184</v>
       </c>
       <c r="D3">
-        <v>0.4982970048147592</v>
+        <v>0.6493677274241065</v>
       </c>
       <c r="E3">
-        <v>0.2211621530193639</v>
+        <v>0.2640200455365971</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008198910012862876</v>
+        <v>0.002492927336547925</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4062247591512431</v>
+        <v>0.8708834076828431</v>
       </c>
       <c r="J3">
-        <v>0.1300350904669756</v>
+        <v>0.1367072967796545</v>
       </c>
       <c r="K3">
-        <v>1.035033088864338</v>
+        <v>0.5230310453022184</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9073122961408577</v>
+        <v>1.853804167883548</v>
       </c>
       <c r="O3">
-        <v>2.27764395113681</v>
+        <v>4.54153830315002</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8060363232247596</v>
+        <v>0.4235252953399993</v>
       </c>
       <c r="C4">
-        <v>0.1671701247432367</v>
+        <v>0.09023551380785477</v>
       </c>
       <c r="D4">
-        <v>0.4657912366060941</v>
+        <v>0.6434013599369734</v>
       </c>
       <c r="E4">
-        <v>0.2058757513605727</v>
+        <v>0.261068473494511</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008225945703285324</v>
+        <v>0.002494750105087492</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4060139011478547</v>
+        <v>0.8745279677889357</v>
       </c>
       <c r="J4">
-        <v>0.1203945821233674</v>
+        <v>0.1347330309150578</v>
       </c>
       <c r="K4">
-        <v>0.9391385085322668</v>
+        <v>0.4967213293764416</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9359815998783292</v>
+        <v>1.866026601336567</v>
       </c>
       <c r="O4">
-        <v>2.241424374520108</v>
+        <v>4.552102723375981</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7726047229872393</v>
+        <v>0.414304678977544</v>
       </c>
       <c r="C5">
-        <v>0.1602139909377058</v>
+        <v>0.08837371357628854</v>
       </c>
       <c r="D5">
-        <v>0.4526976768170812</v>
+        <v>0.6410541965485095</v>
       </c>
       <c r="E5">
-        <v>0.1997159124260079</v>
+        <v>0.2599015852808648</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008237183973874424</v>
+        <v>0.002495516333598295</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4061154835420346</v>
+        <v>0.8761150876646084</v>
       </c>
       <c r="J5">
-        <v>0.1165080484007035</v>
+        <v>0.1339482788271198</v>
       </c>
       <c r="K5">
-        <v>0.9001593928033174</v>
+        <v>0.4860457926786239</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9479498750412736</v>
+        <v>1.871154873043434</v>
       </c>
       <c r="O5">
-        <v>2.227707590924439</v>
+        <v>4.556969349617219</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7670575733122007</v>
+        <v>0.4127759397009356</v>
       </c>
       <c r="C6">
-        <v>0.159060260059988</v>
+        <v>0.08806509536512408</v>
       </c>
       <c r="D6">
-        <v>0.450532386362454</v>
+        <v>0.6406695392431061</v>
       </c>
       <c r="E6">
-        <v>0.1986971054842073</v>
+        <v>0.2597099935163172</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.000823906354923591</v>
+        <v>0.002495644982821719</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4061434404443176</v>
+        <v>0.8763847840240686</v>
       </c>
       <c r="J6">
-        <v>0.1158651215959452</v>
+        <v>0.1338191657853756</v>
       </c>
       <c r="K6">
-        <v>0.8936923583148939</v>
+        <v>0.4842759135571271</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9499542278208288</v>
+        <v>1.872015328614316</v>
       </c>
       <c r="O6">
-        <v>2.225491397473803</v>
+        <v>4.557811365067352</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8055851660101325</v>
+        <v>0.4234007865156002</v>
       </c>
       <c r="C7">
-        <v>0.1670762200892142</v>
+        <v>0.09021036926641557</v>
       </c>
       <c r="D7">
-        <v>0.4656140492097904</v>
+        <v>0.6433693642884748</v>
       </c>
       <c r="E7">
-        <v>0.2057924038612597</v>
+        <v>0.2610525910334545</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008226096365636093</v>
+        <v>0.002494760343751623</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4060145226207297</v>
+        <v>0.874548959531861</v>
       </c>
       <c r="J7">
-        <v>0.1203420017356081</v>
+        <v>0.1347223673987727</v>
       </c>
       <c r="K7">
-        <v>0.9386124476222335</v>
+        <v>0.4965771689258816</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9361418622051856</v>
+        <v>1.866095165684317</v>
       </c>
       <c r="O7">
-        <v>2.241235231491572</v>
+        <v>4.552166082749267</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9763045332420859</v>
+        <v>0.4706223485501937</v>
       </c>
       <c r="C8">
-        <v>0.2026717543198231</v>
+        <v>0.09975403148358453</v>
       </c>
       <c r="D8">
-        <v>0.5335401421412485</v>
+        <v>0.6560218459847249</v>
       </c>
       <c r="E8">
-        <v>0.237728358243551</v>
+        <v>0.2672922937929982</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008170804032755948</v>
+        <v>0.002491062180793977</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4071140816475811</v>
+        <v>0.8673427613957401</v>
       </c>
       <c r="J8">
-        <v>0.1404771444932038</v>
+        <v>0.1388816321104613</v>
       </c>
       <c r="K8">
-        <v>1.13775301940305</v>
+        <v>0.5512614636577098</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8777146941605753</v>
+        <v>1.84126603686185</v>
       </c>
       <c r="O8">
-        <v>2.320010109591266</v>
+        <v>4.532184525792218</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.314708037834919</v>
+        <v>0.5644070385962436</v>
       </c>
       <c r="C9">
-        <v>0.2735860658146976</v>
+        <v>0.1187438984480593</v>
       </c>
       <c r="D9">
-        <v>0.6725396345857177</v>
+        <v>0.6834836573873702</v>
       </c>
       <c r="E9">
-        <v>0.303022999266048</v>
+        <v>0.2806601767082526</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008069014489237697</v>
+        <v>0.002484544126294461</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4158498769073162</v>
+        <v>0.8564285774414344</v>
       </c>
       <c r="J9">
-        <v>0.1816030800397925</v>
+        <v>0.1476627705274822</v>
       </c>
       <c r="K9">
-        <v>1.532938101471018</v>
+        <v>0.65991451121306</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7727052946139672</v>
+        <v>1.797232173833317</v>
       </c>
       <c r="O9">
-        <v>2.511700132750804</v>
+        <v>4.510723277789452</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.566680550461996</v>
+        <v>0.6340182944035178</v>
       </c>
       <c r="C10">
-        <v>0.3266893479353996</v>
+        <v>0.1328633357142621</v>
       </c>
       <c r="D10">
-        <v>0.7790813686561364</v>
+        <v>0.7052752205614752</v>
       </c>
       <c r="E10">
-        <v>0.3530534500813687</v>
+        <v>0.2911727841118292</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007997977435221119</v>
+        <v>0.002480198275596091</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4268716415580656</v>
+        <v>0.8503725726031206</v>
       </c>
       <c r="J10">
-        <v>0.2131040781955278</v>
+        <v>0.1544970507268459</v>
       </c>
       <c r="K10">
-        <v>1.827563034960207</v>
+        <v>0.7405936905808517</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7018829981786556</v>
+        <v>1.767718001386992</v>
       </c>
       <c r="O10">
-        <v>2.679085554150618</v>
+        <v>4.505770905354382</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.682310972919879</v>
+        <v>0.6658374460798484</v>
       </c>
       <c r="C11">
-        <v>0.3511440648494499</v>
+        <v>0.139323134365327</v>
       </c>
       <c r="D11">
-        <v>0.8287224328120146</v>
+        <v>0.7155396594751551</v>
       </c>
       <c r="E11">
-        <v>0.3763646110382908</v>
+        <v>0.2961056877663211</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007966403814292015</v>
+        <v>0.002478316459113606</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4330274235924492</v>
+        <v>0.8480440656265031</v>
       </c>
       <c r="J11">
-        <v>0.2277827681028839</v>
+        <v>0.1576897127366266</v>
       </c>
       <c r="K11">
-        <v>1.962872240084181</v>
+        <v>0.7774796230957293</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6711573673442413</v>
+        <v>1.754907196121973</v>
       </c>
       <c r="O11">
-        <v>2.76192772104568</v>
+        <v>4.505869229111511</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.726266345414814</v>
+        <v>0.6779081079864397</v>
       </c>
       <c r="C12">
-        <v>0.3604543500575517</v>
+        <v>0.1417745580810674</v>
       </c>
       <c r="D12">
-        <v>0.847708211137558</v>
+        <v>0.7194770031974826</v>
       </c>
       <c r="E12">
-        <v>0.3852806642300095</v>
+        <v>0.2979953135398361</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007954548103086823</v>
+        <v>0.002477617471593098</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4355355081731247</v>
+        <v>0.8472236621438896</v>
       </c>
       <c r="J12">
-        <v>0.2333975498775658</v>
+        <v>0.1589107464732535</v>
       </c>
       <c r="K12">
-        <v>2.01432564402387</v>
+        <v>0.7914735396435617</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6597478586765764</v>
+        <v>1.750144594112852</v>
       </c>
       <c r="O12">
-        <v>2.794344925370638</v>
+        <v>4.506244708368655</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.716791868831535</v>
+        <v>0.67530752955156</v>
       </c>
       <c r="C13">
-        <v>0.358446880199665</v>
+        <v>0.1412463679965015</v>
       </c>
       <c r="D13">
-        <v>0.8436106158910377</v>
+        <v>0.7186267847716863</v>
       </c>
       <c r="E13">
-        <v>0.383356336108065</v>
+        <v>0.2975873866487149</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007957097073155708</v>
+        <v>0.002477767406476902</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.434987259439751</v>
+        <v>0.8473976215085415</v>
       </c>
       <c r="J13">
-        <v>0.2321857000372773</v>
+        <v>0.1586472393804996</v>
       </c>
       <c r="K13">
-        <v>2.003234173595558</v>
+        <v>0.7884585507086399</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6621948799890731</v>
+        <v>1.751166364991967</v>
       </c>
       <c r="O13">
-        <v>2.787315348349836</v>
+        <v>4.506148796195106</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.685923684617961</v>
+        <v>0.6668300799362612</v>
       </c>
       <c r="C14">
-        <v>0.3519089870464711</v>
+        <v>0.1395247097941024</v>
       </c>
       <c r="D14">
-        <v>0.8302805273573028</v>
+        <v>0.7158625771230618</v>
       </c>
       <c r="E14">
-        <v>0.377096308425088</v>
+        <v>0.2962607148074952</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007965426459561501</v>
+        <v>0.002478258680329889</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4332301404727446</v>
+        <v>0.8479753407542674</v>
       </c>
       <c r="J14">
-        <v>0.228243534718203</v>
+        <v>0.1577899265562479</v>
       </c>
       <c r="K14">
-        <v>1.967100856619169</v>
+        <v>0.7786303926779397</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6702141117720402</v>
+        <v>1.754513598366522</v>
       </c>
       <c r="O14">
-        <v>2.764573225037083</v>
+        <v>4.505893340194888</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.667038732945571</v>
+        <v>0.66164017422048</v>
       </c>
       <c r="C15">
-        <v>0.3479110438847499</v>
+        <v>0.1384708250236031</v>
       </c>
       <c r="D15">
-        <v>0.8221405036289298</v>
+        <v>0.7141759837848554</v>
       </c>
       <c r="E15">
-        <v>0.3732736887170702</v>
+        <v>0.2954509077601273</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007970541353578154</v>
+        <v>0.002478561371339717</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4321773052478193</v>
+        <v>0.8483372013315815</v>
       </c>
       <c r="J15">
-        <v>0.2258363645574946</v>
+        <v>0.1572663660290061</v>
       </c>
       <c r="K15">
-        <v>1.94499706305362</v>
+        <v>0.7726137343338166</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6751558494030707</v>
+        <v>1.756575412766995</v>
       </c>
       <c r="O15">
-        <v>2.750781917292585</v>
+        <v>4.505780920129041</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.559146087612902</v>
+        <v>0.6319418659525695</v>
       </c>
       <c r="C16">
-        <v>0.3250977511443978</v>
+        <v>0.1324419085691204</v>
       </c>
       <c r="D16">
-        <v>0.7758624254524022</v>
+        <v>0.7046114768107543</v>
       </c>
       <c r="E16">
-        <v>0.3515418927626897</v>
+        <v>0.2908534370439639</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008000055254868012</v>
+        <v>0.002480323165512889</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4264933986217798</v>
+        <v>0.8505333293123272</v>
       </c>
       <c r="J16">
-        <v>0.2121523217420815</v>
+        <v>0.1542900876323472</v>
       </c>
       <c r="K16">
-        <v>1.818748607033484</v>
+        <v>0.7381867771389352</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7039219390254985</v>
+        <v>1.76856760719429</v>
       </c>
       <c r="O16">
-        <v>2.673813393773401</v>
+        <v>4.505811804136897</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.493231714380784</v>
+        <v>0.6137616480638144</v>
       </c>
       <c r="C17">
-        <v>0.3111835944460211</v>
+        <v>0.128752750110948</v>
       </c>
       <c r="D17">
-        <v>0.7477861558853078</v>
+        <v>0.6988338790330033</v>
       </c>
       <c r="E17">
-        <v>0.3383578805723317</v>
+        <v>0.288071610205435</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008018346788469118</v>
+        <v>0.002481428288737542</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4233077963647673</v>
+        <v>0.8519898192275264</v>
       </c>
       <c r="J17">
-        <v>0.2038511334461788</v>
+        <v>0.1524856811818296</v>
       </c>
       <c r="K17">
-        <v>1.741648620409336</v>
+        <v>0.7171138518996258</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7219587239112908</v>
+        <v>1.77608209406208</v>
       </c>
       <c r="O17">
-        <v>2.628368572929219</v>
+        <v>4.506433049819094</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.455412744728449</v>
+        <v>0.6033192654546724</v>
       </c>
       <c r="C18">
-        <v>0.3032081141650451</v>
+        <v>0.1266343102983001</v>
       </c>
       <c r="D18">
-        <v>0.7317467823746711</v>
+        <v>0.6955438340667399</v>
       </c>
       <c r="E18">
-        <v>0.330826152998398</v>
+        <v>0.286485759765462</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008028937776072261</v>
+        <v>0.002482072884738008</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4215821826931219</v>
+        <v>0.8528676863058351</v>
       </c>
       <c r="J18">
-        <v>0.1991089380305624</v>
+        <v>0.1514557136097068</v>
       </c>
       <c r="K18">
-        <v>1.697421543089661</v>
+        <v>0.7050106666194438</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7324727065168091</v>
+        <v>1.780462141441918</v>
       </c>
       <c r="O18">
-        <v>2.602854960395547</v>
+        <v>4.507011669220475</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.44262320800317</v>
+        <v>0.5997861425256872</v>
       </c>
       <c r="C19">
-        <v>0.3005122859109122</v>
+        <v>0.125917639981509</v>
       </c>
       <c r="D19">
-        <v>0.726334356707639</v>
+        <v>0.6944355653305649</v>
       </c>
       <c r="E19">
-        <v>0.3282845921917072</v>
+        <v>0.2859512546716232</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008032535935260543</v>
+        <v>0.002482292674314474</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4210158638106307</v>
+        <v>0.8531718087506093</v>
       </c>
       <c r="J19">
-        <v>0.197508702821878</v>
+        <v>0.1511083374399504</v>
       </c>
       <c r="K19">
-        <v>1.682466534670169</v>
+        <v>0.7009157412388447</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7360562294218784</v>
+        <v>1.781955094301775</v>
       </c>
       <c r="O19">
-        <v>2.594321400572397</v>
+        <v>4.507245583018715</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.50023859568671</v>
+        <v>0.6156954768646017</v>
       </c>
       <c r="C20">
-        <v>0.3126618775076224</v>
+        <v>0.1291451089372515</v>
       </c>
       <c r="D20">
-        <v>0.7507634729907693</v>
+        <v>0.6994454916138011</v>
       </c>
       <c r="E20">
-        <v>0.339755960237035</v>
+        <v>0.2883662727264067</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008016392402708476</v>
+        <v>0.002481309719826741</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4236357804666824</v>
+        <v>0.8518306195567433</v>
       </c>
       <c r="J20">
-        <v>0.2047314100130677</v>
+        <v>0.1526769478228971</v>
       </c>
       <c r="K20">
-        <v>1.749843539106848</v>
+        <v>0.7193553033359024</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7200241410928534</v>
+        <v>1.775276169676376</v>
       </c>
       <c r="O20">
-        <v>2.633140977098407</v>
+        <v>4.506344012840856</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.694985642118922</v>
+        <v>0.6693195345790741</v>
       </c>
       <c r="C21">
-        <v>0.3538279140545058</v>
+        <v>0.1400302608004722</v>
       </c>
       <c r="D21">
-        <v>0.8341906432959547</v>
+        <v>0.7166731242320168</v>
       </c>
       <c r="E21">
-        <v>0.3789325478159569</v>
+        <v>0.2966498033089806</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.000796297723890577</v>
+        <v>0.00247811401237618</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4337413374880441</v>
+        <v>0.8478039852553678</v>
       </c>
       <c r="J21">
-        <v>0.2293998654272826</v>
+        <v>0.1580414132685064</v>
       </c>
       <c r="K21">
-        <v>1.977708006098197</v>
+        <v>0.7815164590980714</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6678524529816858</v>
+        <v>1.75352803026178</v>
       </c>
       <c r="O21">
-        <v>2.771224032950954</v>
+        <v>4.505959192707252</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.823259535121196</v>
+        <v>0.704490686975987</v>
       </c>
       <c r="C22">
-        <v>0.3810263452287188</v>
+        <v>0.1471748443090348</v>
       </c>
       <c r="D22">
-        <v>0.8898195284433541</v>
+        <v>0.728226238320417</v>
       </c>
       <c r="E22">
-        <v>0.4050581040174492</v>
+        <v>0.3021897059470859</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007928650185534635</v>
+        <v>0.002476104764143388</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.441384407037269</v>
+        <v>0.8455299679312418</v>
       </c>
       <c r="J22">
-        <v>0.2458533876198601</v>
+        <v>0.1616175929069357</v>
       </c>
       <c r="K22">
-        <v>2.127898162350107</v>
+        <v>0.8222937558770411</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6350761116854642</v>
+        <v>1.73983067142769</v>
       </c>
       <c r="O22">
-        <v>2.867613723405924</v>
+        <v>4.507679319467968</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.754697874004734</v>
+        <v>0.6857079365566392</v>
       </c>
       <c r="C23">
-        <v>0.3664806544627766</v>
+        <v>0.1433588716714667</v>
       </c>
       <c r="D23">
-        <v>0.8600216626930148</v>
+        <v>0.7220332686514723</v>
       </c>
       <c r="E23">
-        <v>0.3910634469556982</v>
+        <v>0.2992214218668536</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007946919976272681</v>
+        <v>0.002477169900071815</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4372056368407655</v>
+        <v>0.8467109194561928</v>
       </c>
       <c r="J23">
-        <v>0.2370393633472361</v>
+        <v>0.159702494708597</v>
       </c>
       <c r="K23">
-        <v>2.04761221254401</v>
+        <v>0.8005164669438614</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6524447063526377</v>
+        <v>1.747093937933746</v>
       </c>
       <c r="O23">
-        <v>2.815577163221604</v>
+        <v>4.506580801251516</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.497070549451877</v>
+        <v>0.6148211627142928</v>
       </c>
       <c r="C24">
-        <v>0.3119934716466446</v>
+        <v>0.1289677157009521</v>
       </c>
       <c r="D24">
-        <v>0.7494171114796302</v>
+        <v>0.6991688832140994</v>
       </c>
       <c r="E24">
-        <v>0.3391237397980973</v>
+        <v>0.2882330138772602</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008017275746657757</v>
+        <v>0.002481363296090669</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.42348717017002</v>
+        <v>0.8519024675364903</v>
       </c>
       <c r="J24">
-        <v>0.2043333431558807</v>
+        <v>0.1525904530952005</v>
       </c>
       <c r="K24">
-        <v>1.746138311094342</v>
+        <v>0.7183419059724372</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.720898317057479</v>
+        <v>1.775640341603038</v>
       </c>
       <c r="O24">
-        <v>2.630981469368123</v>
+        <v>4.506383576629986</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.222660343443181</v>
+        <v>0.5389105337553133</v>
       </c>
       <c r="C25">
-        <v>0.254250815995789</v>
+        <v>0.1135772130164696</v>
       </c>
       <c r="D25">
-        <v>0.634228399887661</v>
+        <v>0.6757708094632449</v>
       </c>
       <c r="E25">
-        <v>0.2850306793205704</v>
+        <v>0.2769225122281043</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008095870390828349</v>
+        <v>0.002486229318819577</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4127235307117729</v>
+        <v>0.8590365949222303</v>
       </c>
       <c r="J25">
-        <v>0.1702735268762936</v>
+        <v>0.1452201545532006</v>
       </c>
       <c r="K25">
-        <v>1.425388108015198</v>
+        <v>0.6303705183752299</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8000399280463242</v>
+        <v>1.808646152000257</v>
       </c>
       <c r="O25">
-        <v>2.455476442347816</v>
+        <v>4.514630664497872</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_11/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4834976253075638</v>
+        <v>1.022766665237953</v>
       </c>
       <c r="C2">
-        <v>0.1023584793711052</v>
+        <v>0.2123803799061932</v>
       </c>
       <c r="D2">
-        <v>0.6596294088646744</v>
+        <v>0.5523062842327988</v>
       </c>
       <c r="E2">
-        <v>0.2690594927575418</v>
+        <v>0.2465470090821356</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002490110008369273</v>
+        <v>0.0008156282344231461</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8656079116674604</v>
+        <v>0.4078366927606147</v>
       </c>
       <c r="J2">
-        <v>0.1400508006420935</v>
+        <v>0.1460339281779568</v>
       </c>
       <c r="K2">
-        <v>0.5661745446029727</v>
+        <v>1.191976560653359</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.834853718740516</v>
+        <v>0.862514050792905</v>
       </c>
       <c r="O2">
-        <v>4.527969484952138</v>
+        <v>2.343738409989157</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4462465166549805</v>
+        <v>0.8882612241480672</v>
       </c>
       <c r="C3">
-        <v>0.09482582727186184</v>
+        <v>0.1842990814414378</v>
       </c>
       <c r="D3">
-        <v>0.6493677274241065</v>
+        <v>0.4982970048149298</v>
       </c>
       <c r="E3">
-        <v>0.2640200455365971</v>
+        <v>0.2211621530193568</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002492927336547925</v>
+        <v>0.0008198910012907013</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8708834076828431</v>
+        <v>0.4062247591512431</v>
       </c>
       <c r="J3">
-        <v>0.1367072967796545</v>
+        <v>0.1300350904668335</v>
       </c>
       <c r="K3">
-        <v>0.5230310453022184</v>
+        <v>1.035033088864367</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.853804167883548</v>
+        <v>0.907312296140848</v>
       </c>
       <c r="O3">
-        <v>4.54153830315002</v>
+        <v>2.27764395113681</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4235252953399993</v>
+        <v>0.8060363232247596</v>
       </c>
       <c r="C4">
-        <v>0.09023551380785477</v>
+        <v>0.1671701247433219</v>
       </c>
       <c r="D4">
-        <v>0.6434013599369734</v>
+        <v>0.465791236605952</v>
       </c>
       <c r="E4">
-        <v>0.261068473494511</v>
+        <v>0.205875751360594</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002494750105087492</v>
+        <v>0.0008225945703531762</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8745279677889357</v>
+        <v>0.4060139011478689</v>
       </c>
       <c r="J4">
-        <v>0.1347330309150578</v>
+        <v>0.1203945821234242</v>
       </c>
       <c r="K4">
-        <v>0.4967213293764416</v>
+        <v>0.9391385085321531</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.866026601336567</v>
+        <v>0.935981599878259</v>
       </c>
       <c r="O4">
-        <v>4.552102723375981</v>
+        <v>2.241424374519966</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.414304678977544</v>
+        <v>0.7726047229873814</v>
       </c>
       <c r="C5">
-        <v>0.08837371357628854</v>
+        <v>0.1602139909379332</v>
       </c>
       <c r="D5">
-        <v>0.6410541965485095</v>
+        <v>0.4526976768168822</v>
       </c>
       <c r="E5">
-        <v>0.2599015852808648</v>
+        <v>0.1997159124260364</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002495516333598295</v>
+        <v>0.0008237183973874637</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8761150876646084</v>
+        <v>0.4061154835420169</v>
       </c>
       <c r="J5">
-        <v>0.1339482788271198</v>
+        <v>0.1165080484007319</v>
       </c>
       <c r="K5">
-        <v>0.4860457926786239</v>
+        <v>0.9001593928034595</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.871154873043434</v>
+        <v>0.9479498750412123</v>
       </c>
       <c r="O5">
-        <v>4.556969349617219</v>
+        <v>2.227707590924496</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4127759397009356</v>
+        <v>0.7670575733121723</v>
       </c>
       <c r="C6">
-        <v>0.08806509536512408</v>
+        <v>0.1590602600604569</v>
       </c>
       <c r="D6">
-        <v>0.6406695392431061</v>
+        <v>0.4505323863625108</v>
       </c>
       <c r="E6">
-        <v>0.2597099935163172</v>
+        <v>0.1986971054842144</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002495644982821719</v>
+        <v>0.0008239063548640896</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8763847840240686</v>
+        <v>0.4061434404443141</v>
       </c>
       <c r="J6">
-        <v>0.1338191657853756</v>
+        <v>0.1158651215959594</v>
       </c>
       <c r="K6">
-        <v>0.4842759135571271</v>
+        <v>0.8936923583148939</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.872015328614316</v>
+        <v>0.949954227820772</v>
       </c>
       <c r="O6">
-        <v>4.557811365067352</v>
+        <v>2.225491397473803</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4234007865156002</v>
+        <v>0.8055851660100473</v>
       </c>
       <c r="C7">
-        <v>0.09021036926641557</v>
+        <v>0.1670762200892142</v>
       </c>
       <c r="D7">
-        <v>0.6433693642884748</v>
+        <v>0.4656140492100178</v>
       </c>
       <c r="E7">
-        <v>0.2610525910334545</v>
+        <v>0.2057924038612668</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002494760343751623</v>
+        <v>0.0008226096365884672</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.874548959531861</v>
+        <v>0.4060145226207155</v>
       </c>
       <c r="J7">
-        <v>0.1347223673987727</v>
+        <v>0.1203420017356791</v>
       </c>
       <c r="K7">
-        <v>0.4965771689258816</v>
+        <v>0.9386124476222619</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.866095165684317</v>
+        <v>0.9361418622051847</v>
       </c>
       <c r="O7">
-        <v>4.552166082749267</v>
+        <v>2.241235231491515</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4706223485501937</v>
+        <v>0.9763045332419154</v>
       </c>
       <c r="C8">
-        <v>0.09975403148358453</v>
+        <v>0.2026717543197094</v>
       </c>
       <c r="D8">
-        <v>0.6560218459847249</v>
+        <v>0.5335401421413906</v>
       </c>
       <c r="E8">
-        <v>0.2672922937929982</v>
+        <v>0.2377283582435297</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002491062180793977</v>
+        <v>0.0008170804032760851</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8673427613957401</v>
+        <v>0.4071140816475705</v>
       </c>
       <c r="J8">
-        <v>0.1388816321104613</v>
+        <v>0.1404771444933246</v>
       </c>
       <c r="K8">
-        <v>0.5512614636577098</v>
+        <v>1.137753019403107</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.84126603686185</v>
+        <v>0.8777146941605736</v>
       </c>
       <c r="O8">
-        <v>4.532184525792218</v>
+        <v>2.320010109591294</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5644070385962436</v>
+        <v>1.314708037834862</v>
       </c>
       <c r="C9">
-        <v>0.1187438984480593</v>
+        <v>0.2735860658144986</v>
       </c>
       <c r="D9">
-        <v>0.6834836573873702</v>
+        <v>0.6725396345857177</v>
       </c>
       <c r="E9">
-        <v>0.2806601767082526</v>
+        <v>0.3030229992660551</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002484544126294461</v>
+        <v>0.0008069014489231037</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8564285774414344</v>
+        <v>0.4158498769072949</v>
       </c>
       <c r="J9">
-        <v>0.1476627705274822</v>
+        <v>0.1816030800397144</v>
       </c>
       <c r="K9">
-        <v>0.65991451121306</v>
+        <v>1.532938101471075</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.797232173833317</v>
+        <v>0.7727052946140063</v>
       </c>
       <c r="O9">
-        <v>4.510723277789452</v>
+        <v>2.511700132750832</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6340182944035178</v>
+        <v>1.566680550462138</v>
       </c>
       <c r="C10">
-        <v>0.1328633357142621</v>
+        <v>0.3266893479355133</v>
       </c>
       <c r="D10">
-        <v>0.7052752205614752</v>
+        <v>0.7790813686560227</v>
       </c>
       <c r="E10">
-        <v>0.2911727841118292</v>
+        <v>0.3530534500813687</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002480198275596091</v>
+        <v>0.0007997977434928139</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8503725726031206</v>
+        <v>0.4268716415580585</v>
       </c>
       <c r="J10">
-        <v>0.1544970507268459</v>
+        <v>0.2131040781955136</v>
       </c>
       <c r="K10">
-        <v>0.7405936905808517</v>
+        <v>1.827563034960207</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.767718001386992</v>
+        <v>0.7018829981786414</v>
       </c>
       <c r="O10">
-        <v>4.505770905354382</v>
+        <v>2.679085554150589</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6658374460798484</v>
+        <v>1.682310972919851</v>
       </c>
       <c r="C11">
-        <v>0.139323134365327</v>
+        <v>0.3511440648493362</v>
       </c>
       <c r="D11">
-        <v>0.7155396594751551</v>
+        <v>0.8287224328120146</v>
       </c>
       <c r="E11">
-        <v>0.2961056877663211</v>
+        <v>0.3763646110382552</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002478316459113606</v>
+        <v>0.0007966403814602225</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8480440656265031</v>
+        <v>0.4330274235924421</v>
       </c>
       <c r="J11">
-        <v>0.1576897127366266</v>
+        <v>0.2277827681028839</v>
       </c>
       <c r="K11">
-        <v>0.7774796230957293</v>
+        <v>1.962872240084039</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.754907196121973</v>
+        <v>0.6711573673442892</v>
       </c>
       <c r="O11">
-        <v>4.505869229111511</v>
+        <v>2.761927721045652</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6779081079864397</v>
+        <v>1.726266345414786</v>
       </c>
       <c r="C12">
-        <v>0.1417745580810674</v>
+        <v>0.3604543500575801</v>
       </c>
       <c r="D12">
-        <v>0.7194770031974826</v>
+        <v>0.8477082111374727</v>
       </c>
       <c r="E12">
-        <v>0.2979953135398361</v>
+        <v>0.3852806642299953</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002477617471593098</v>
+        <v>0.000795454810336173</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8472236621438896</v>
+        <v>0.4355355081731176</v>
       </c>
       <c r="J12">
-        <v>0.1589107464732535</v>
+        <v>0.233397549877651</v>
       </c>
       <c r="K12">
-        <v>0.7914735396435617</v>
+        <v>2.014325644023955</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.750144594112852</v>
+        <v>0.659747858676635</v>
       </c>
       <c r="O12">
-        <v>4.506244708368655</v>
+        <v>2.794344925370638</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.67530752955156</v>
+        <v>1.71679186883182</v>
       </c>
       <c r="C13">
-        <v>0.1412463679965015</v>
+        <v>0.3584468801994092</v>
       </c>
       <c r="D13">
-        <v>0.7186267847716863</v>
+        <v>0.8436106158908956</v>
       </c>
       <c r="E13">
-        <v>0.2975873866487149</v>
+        <v>0.3833563361080436</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002477767406476902</v>
+        <v>0.0007957097073152263</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8473976215085415</v>
+        <v>0.4349872594397368</v>
       </c>
       <c r="J13">
-        <v>0.1586472393804996</v>
+        <v>0.2321857000372205</v>
       </c>
       <c r="K13">
-        <v>0.7884585507086399</v>
+        <v>2.003234173595587</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.751166364991967</v>
+        <v>0.6621948799890891</v>
       </c>
       <c r="O13">
-        <v>4.506148796195106</v>
+        <v>2.787315348349892</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6668300799362612</v>
+        <v>1.685923684617904</v>
       </c>
       <c r="C14">
-        <v>0.1395247097941024</v>
+        <v>0.3519089870464711</v>
       </c>
       <c r="D14">
-        <v>0.7158625771230618</v>
+        <v>0.8302805273573313</v>
       </c>
       <c r="E14">
-        <v>0.2962607148074952</v>
+        <v>0.3770963084251164</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002478258680329889</v>
+        <v>0.000796542645989056</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8479753407542674</v>
+        <v>0.4332301404727446</v>
       </c>
       <c r="J14">
-        <v>0.1577899265562479</v>
+        <v>0.2282435347181888</v>
       </c>
       <c r="K14">
-        <v>0.7786303926779397</v>
+        <v>1.967100856619169</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.754513598366522</v>
+        <v>0.6702141117719602</v>
       </c>
       <c r="O14">
-        <v>4.505893340194888</v>
+        <v>2.764573225037026</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.66164017422048</v>
+        <v>1.667038732945485</v>
       </c>
       <c r="C15">
-        <v>0.1384708250236031</v>
+        <v>0.3479110438845225</v>
       </c>
       <c r="D15">
-        <v>0.7141759837848554</v>
+        <v>0.8221405036289298</v>
       </c>
       <c r="E15">
-        <v>0.2954509077601273</v>
+        <v>0.3732736887170702</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002478561371339717</v>
+        <v>0.0007970541353582035</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8483372013315815</v>
+        <v>0.4321773052478122</v>
       </c>
       <c r="J15">
-        <v>0.1572663660290061</v>
+        <v>0.2258363645575088</v>
       </c>
       <c r="K15">
-        <v>0.7726137343338166</v>
+        <v>1.944997063053734</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.756575412766995</v>
+        <v>0.6751558494030725</v>
       </c>
       <c r="O15">
-        <v>4.505780920129041</v>
+        <v>2.750781917292585</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6319418659525695</v>
+        <v>1.559146087612902</v>
       </c>
       <c r="C16">
-        <v>0.1324419085691204</v>
+        <v>0.3250977511445967</v>
       </c>
       <c r="D16">
-        <v>0.7046114768107543</v>
+        <v>0.7758624254524591</v>
       </c>
       <c r="E16">
-        <v>0.2908534370439639</v>
+        <v>0.3515418927626826</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002480323165512889</v>
+        <v>0.0008000055255155948</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8505333293123272</v>
+        <v>0.4264933986217656</v>
       </c>
       <c r="J16">
-        <v>0.1542900876323472</v>
+        <v>0.2121523217422236</v>
       </c>
       <c r="K16">
-        <v>0.7381867771389352</v>
+        <v>1.818748607033513</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.76856760719429</v>
+        <v>0.7039219390254736</v>
       </c>
       <c r="O16">
-        <v>4.505811804136897</v>
+        <v>2.673813393773344</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6137616480638144</v>
+        <v>1.49323171438084</v>
       </c>
       <c r="C17">
-        <v>0.128752750110948</v>
+        <v>0.3111835944460779</v>
       </c>
       <c r="D17">
-        <v>0.6988338790330033</v>
+        <v>0.7477861558853363</v>
       </c>
       <c r="E17">
-        <v>0.288071610205435</v>
+        <v>0.3383578805723104</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002481428288737542</v>
+        <v>0.0008018346788171238</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8519898192275264</v>
+        <v>0.4233077963647744</v>
       </c>
       <c r="J17">
-        <v>0.1524856811818296</v>
+        <v>0.2038511334461788</v>
       </c>
       <c r="K17">
-        <v>0.7171138518996258</v>
+        <v>1.741648620409222</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.77608209406208</v>
+        <v>0.7219587239112322</v>
       </c>
       <c r="O17">
-        <v>4.506433049819094</v>
+        <v>2.628368572929247</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6033192654546724</v>
+        <v>1.455412744728619</v>
       </c>
       <c r="C18">
-        <v>0.1266343102983001</v>
+        <v>0.3032081141652156</v>
       </c>
       <c r="D18">
-        <v>0.6955438340667399</v>
+        <v>0.7317467823745574</v>
       </c>
       <c r="E18">
-        <v>0.286485759765462</v>
+        <v>0.3308261529984264</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002482072884738008</v>
+        <v>0.0008028937776649586</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8528676863058351</v>
+        <v>0.4215821826930934</v>
       </c>
       <c r="J18">
-        <v>0.1514557136097068</v>
+        <v>0.1991089380304629</v>
       </c>
       <c r="K18">
-        <v>0.7050106666194438</v>
+        <v>1.697421543089831</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.780462141441918</v>
+        <v>0.732472706516802</v>
       </c>
       <c r="O18">
-        <v>4.507011669220475</v>
+        <v>2.602854960395604</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5997861425256872</v>
+        <v>1.44262320800317</v>
       </c>
       <c r="C19">
-        <v>0.125917639981509</v>
+        <v>0.3005122859108269</v>
       </c>
       <c r="D19">
-        <v>0.6944355653305649</v>
+        <v>0.7263343567076674</v>
       </c>
       <c r="E19">
-        <v>0.2859512546716232</v>
+        <v>0.3282845921917215</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002482292674314474</v>
+        <v>0.0008032535935542766</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8531718087506093</v>
+        <v>0.4210158638106378</v>
       </c>
       <c r="J19">
-        <v>0.1511083374399504</v>
+        <v>0.197508702821878</v>
       </c>
       <c r="K19">
-        <v>0.7009157412388447</v>
+        <v>1.682466534670141</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.781955094301775</v>
+        <v>0.7360562294218695</v>
       </c>
       <c r="O19">
-        <v>4.507245583018715</v>
+        <v>2.594321400572397</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6156954768646017</v>
+        <v>1.500238595686994</v>
       </c>
       <c r="C20">
-        <v>0.1291451089372515</v>
+        <v>0.3126618775077077</v>
       </c>
       <c r="D20">
-        <v>0.6994454916138011</v>
+        <v>0.7507634729907977</v>
       </c>
       <c r="E20">
-        <v>0.2883662727264067</v>
+        <v>0.339755960237035</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002481309719826741</v>
+        <v>0.0008016392402706626</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8518306195567433</v>
+        <v>0.4236357804666753</v>
       </c>
       <c r="J20">
-        <v>0.1526769478228971</v>
+        <v>0.2047314100130677</v>
       </c>
       <c r="K20">
-        <v>0.7193553033359024</v>
+        <v>1.749843539106962</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.775276169676376</v>
+        <v>0.7200241410928481</v>
       </c>
       <c r="O20">
-        <v>4.506344012840856</v>
+        <v>2.633140977098492</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6693195345790741</v>
+        <v>1.694985642118951</v>
       </c>
       <c r="C21">
-        <v>0.1400302608004722</v>
+        <v>0.3538279140545058</v>
       </c>
       <c r="D21">
-        <v>0.7166731242320168</v>
+        <v>0.8341906432962389</v>
       </c>
       <c r="E21">
-        <v>0.2966498033089806</v>
+        <v>0.3789325478159569</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.00247811401237618</v>
+        <v>0.0007962977239517467</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8478039852553678</v>
+        <v>0.4337413374880299</v>
       </c>
       <c r="J21">
-        <v>0.1580414132685064</v>
+        <v>0.2293998654272258</v>
       </c>
       <c r="K21">
-        <v>0.7815164590980714</v>
+        <v>1.977708006098169</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.75352803026178</v>
+        <v>0.6678524529816912</v>
       </c>
       <c r="O21">
-        <v>4.505959192707252</v>
+        <v>2.771224032950954</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.704490686975987</v>
+        <v>1.823259535121252</v>
       </c>
       <c r="C22">
-        <v>0.1471748443090348</v>
+        <v>0.3810263452285199</v>
       </c>
       <c r="D22">
-        <v>0.728226238320417</v>
+        <v>0.8898195284430983</v>
       </c>
       <c r="E22">
-        <v>0.3021897059470859</v>
+        <v>0.4050581040175061</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002476104764143388</v>
+        <v>0.0007928650185846883</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8455299679312418</v>
+        <v>0.4413844070372619</v>
       </c>
       <c r="J22">
-        <v>0.1616175929069357</v>
+        <v>0.2458533876198317</v>
       </c>
       <c r="K22">
-        <v>0.8222937558770411</v>
+        <v>2.127898162350192</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.73983067142769</v>
+        <v>0.6350761116855637</v>
       </c>
       <c r="O22">
-        <v>4.507679319467968</v>
+        <v>2.867613723405981</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6857079365566392</v>
+        <v>1.754697874004677</v>
       </c>
       <c r="C23">
-        <v>0.1433588716714667</v>
+        <v>0.3664806544626344</v>
       </c>
       <c r="D23">
-        <v>0.7220332686514723</v>
+        <v>0.860021662692958</v>
       </c>
       <c r="E23">
-        <v>0.2992214218668536</v>
+        <v>0.3910634469557053</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002477169900071815</v>
+        <v>0.0007946919976566016</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8467109194561928</v>
+        <v>0.4372056368407726</v>
       </c>
       <c r="J23">
-        <v>0.159702494708597</v>
+        <v>0.2370393633472361</v>
       </c>
       <c r="K23">
-        <v>0.8005164669438614</v>
+        <v>2.047612212544124</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.747093937933746</v>
+        <v>0.6524447063526928</v>
       </c>
       <c r="O23">
-        <v>4.506580801251516</v>
+        <v>2.815577163221576</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6148211627142928</v>
+        <v>1.497070549451877</v>
       </c>
       <c r="C24">
-        <v>0.1289677157009521</v>
+        <v>0.3119934716465025</v>
       </c>
       <c r="D24">
-        <v>0.6991688832140994</v>
+        <v>0.7494171114793744</v>
       </c>
       <c r="E24">
-        <v>0.2882330138772602</v>
+        <v>0.3391237397981044</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002481363296090669</v>
+        <v>0.000801727574634955</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8519024675364903</v>
+        <v>0.4234871701700058</v>
       </c>
       <c r="J24">
-        <v>0.1525904530952005</v>
+        <v>0.2043333431558949</v>
       </c>
       <c r="K24">
-        <v>0.7183419059724372</v>
+        <v>1.746138311094427</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.775640341603038</v>
+        <v>0.7208983170574719</v>
       </c>
       <c r="O24">
-        <v>4.506383576629986</v>
+        <v>2.630981469368237</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5389105337553133</v>
+        <v>1.222660343443124</v>
       </c>
       <c r="C25">
-        <v>0.1135772130164696</v>
+        <v>0.2542508159955617</v>
       </c>
       <c r="D25">
-        <v>0.6757708094632449</v>
+        <v>0.6342283998875473</v>
       </c>
       <c r="E25">
-        <v>0.2769225122281043</v>
+        <v>0.2850306793205561</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002486229318819577</v>
+        <v>0.0008095870390812807</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8590365949222303</v>
+        <v>0.4127235307117942</v>
       </c>
       <c r="J25">
-        <v>0.1452201545532006</v>
+        <v>0.1702735268762723</v>
       </c>
       <c r="K25">
-        <v>0.6303705183752299</v>
+        <v>1.425388108015085</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.808646152000257</v>
+        <v>0.8000399280463704</v>
       </c>
       <c r="O25">
-        <v>4.514630664497872</v>
+        <v>2.455476442347816</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_11/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.022766665237953</v>
+        <v>0.9689302931094801</v>
       </c>
       <c r="C2">
-        <v>0.2123803799061932</v>
+        <v>0.2550919432382273</v>
       </c>
       <c r="D2">
-        <v>0.5523062842327988</v>
+        <v>0.3990549932398011</v>
       </c>
       <c r="E2">
-        <v>0.2465470090821356</v>
+        <v>0.1332583261861089</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008156282344231461</v>
+        <v>1.20552451235703</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01363487410599601</v>
       </c>
       <c r="I2">
-        <v>0.4078366927606147</v>
+        <v>0.009002531481388854</v>
       </c>
       <c r="J2">
-        <v>0.1460339281779568</v>
+        <v>0.8104752179414447</v>
       </c>
       <c r="K2">
-        <v>1.191976560653359</v>
+        <v>0.7456649649927556</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.04964837824190127</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.199421141080819</v>
       </c>
       <c r="N2">
-        <v>0.862514050792905</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.343738409989157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4507895006306057</v>
+      </c>
+      <c r="P2">
+        <v>1.412806646311246</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8882612241480672</v>
+        <v>0.8438331708281339</v>
       </c>
       <c r="C3">
-        <v>0.1842990814414378</v>
+        <v>0.2223489512685717</v>
       </c>
       <c r="D3">
-        <v>0.4982970048149298</v>
+        <v>0.3605618172941547</v>
       </c>
       <c r="E3">
-        <v>0.2211621530193568</v>
+        <v>0.1190642229705077</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008198910012907013</v>
+        <v>1.136917479407373</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01785389060670495</v>
       </c>
       <c r="I3">
-        <v>0.4062247591512431</v>
+        <v>0.01202273044761126</v>
       </c>
       <c r="J3">
-        <v>0.1300350904668335</v>
+        <v>0.7824329902587976</v>
       </c>
       <c r="K3">
-        <v>1.035033088864367</v>
+        <v>0.7189414207094202</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.04315991708005384</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.04496412677878</v>
       </c>
       <c r="N3">
-        <v>0.907312296140848</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.27764395113681</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3957869902465845</v>
+      </c>
+      <c r="P3">
+        <v>1.431640016419898</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8060363232247596</v>
+        <v>0.7668223401984733</v>
       </c>
       <c r="C4">
-        <v>0.1671701247433219</v>
+        <v>0.2025998416973067</v>
       </c>
       <c r="D4">
-        <v>0.465791236605952</v>
+        <v>0.3370544931829187</v>
       </c>
       <c r="E4">
-        <v>0.205875751360594</v>
+        <v>0.1103550815712353</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008225945703531762</v>
+        <v>1.095200220029085</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0208313606708892</v>
       </c>
       <c r="I4">
-        <v>0.4060139011478689</v>
+        <v>0.01420947470091827</v>
       </c>
       <c r="J4">
-        <v>0.1203945821234242</v>
+        <v>0.7654927111079104</v>
       </c>
       <c r="K4">
-        <v>0.9391385085321531</v>
+        <v>0.7026502987846399</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.03921503148351846</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.9503357888785047</v>
       </c>
       <c r="N4">
-        <v>0.935981599878259</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.241424374519966</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.362075756721822</v>
+      </c>
+      <c r="P4">
+        <v>1.443474788640323</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7726047229873814</v>
+        <v>0.7345460407396729</v>
       </c>
       <c r="C5">
-        <v>0.1602139909379332</v>
+        <v>0.1950186732807282</v>
       </c>
       <c r="D5">
-        <v>0.4526976768168822</v>
+        <v>0.3275041791733742</v>
       </c>
       <c r="E5">
-        <v>0.1997159124260364</v>
+        <v>0.1068065502093383</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008237183973874637</v>
+        <v>1.077147150192815</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.02214507951497691</v>
       </c>
       <c r="I5">
-        <v>0.4061154835420169</v>
+        <v>0.01527168733109141</v>
       </c>
       <c r="J5">
-        <v>0.1165080484007319</v>
+        <v>0.7580720052182102</v>
       </c>
       <c r="K5">
-        <v>0.9001593928034595</v>
+        <v>0.6952459072392188</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.03761564833424558</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.9115319795410812</v>
       </c>
       <c r="N5">
-        <v>0.9479498750412123</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.227707590924496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3482875006829715</v>
+      </c>
+      <c r="P5">
+        <v>1.447505582370702</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7670575733121723</v>
+        <v>0.7281584381181574</v>
       </c>
       <c r="C6">
-        <v>0.1590602600604569</v>
+        <v>0.1942360768993723</v>
       </c>
       <c r="D6">
-        <v>0.4505323863625108</v>
+        <v>0.3259211439414287</v>
       </c>
       <c r="E6">
-        <v>0.1986971054842144</v>
+        <v>0.1062179964227958</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008239063548640896</v>
+        <v>1.072754692344162</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.02237702062180846</v>
       </c>
       <c r="I6">
-        <v>0.4061434404443141</v>
+        <v>0.01557115624187766</v>
       </c>
       <c r="J6">
-        <v>0.1158651215959594</v>
+        <v>0.7561312360831209</v>
       </c>
       <c r="K6">
-        <v>0.8936923583148939</v>
+        <v>0.6930505268716516</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.03735065913406643</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.9047460600801571</v>
       </c>
       <c r="N6">
-        <v>0.949954227820772</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.225491397473803</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3459233943803639</v>
+      </c>
+      <c r="P6">
+        <v>1.447133174044474</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8055851660100473</v>
+        <v>0.7635782533705253</v>
       </c>
       <c r="C7">
-        <v>0.1670762200892142</v>
+        <v>0.2037867996698424</v>
       </c>
       <c r="D7">
-        <v>0.4656140492100178</v>
+        <v>0.3369291346010925</v>
       </c>
       <c r="E7">
-        <v>0.2057924038612668</v>
+        <v>0.1103093275707074</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008226096365884672</v>
+        <v>1.091130899381255</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.02087005205836912</v>
       </c>
       <c r="I7">
-        <v>0.4060145226207155</v>
+        <v>0.01452857477715774</v>
       </c>
       <c r="J7">
-        <v>0.1203420017356791</v>
+        <v>0.7634476424406103</v>
       </c>
       <c r="K7">
-        <v>0.9386124476222619</v>
+        <v>0.6999077767364454</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.03919367793723083</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.9488668337322395</v>
       </c>
       <c r="N7">
-        <v>0.9361418622051847</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>2.241235231491515</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3616838717210982</v>
+      </c>
+      <c r="P7">
+        <v>1.440687798467785</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9763045332419154</v>
+        <v>0.9220748428264187</v>
       </c>
       <c r="C8">
-        <v>0.2026717543197094</v>
+        <v>0.2454413941932216</v>
       </c>
       <c r="D8">
-        <v>0.5335401421413906</v>
+        <v>0.38575942961414</v>
       </c>
       <c r="E8">
-        <v>0.2377283582435297</v>
+        <v>0.1283652000016033</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008170804032760851</v>
+        <v>1.176712981291317</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01502998345593937</v>
       </c>
       <c r="I8">
-        <v>0.4071140816475705</v>
+        <v>0.01033488693299045</v>
       </c>
       <c r="J8">
-        <v>0.1404771444933246</v>
+        <v>0.7981782024396296</v>
       </c>
       <c r="K8">
-        <v>1.137753019403107</v>
+        <v>0.7329303904199094</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.04740156176803723</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.144842724698918</v>
       </c>
       <c r="N8">
-        <v>0.8777146941605736</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>2.320010109591294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4315331758347938</v>
+      </c>
+      <c r="P8">
+        <v>1.415553375653083</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.314708037834862</v>
+        <v>1.236697135026361</v>
       </c>
       <c r="C9">
-        <v>0.2735860658144986</v>
+        <v>0.3279602219280378</v>
       </c>
       <c r="D9">
-        <v>0.6725396345857177</v>
+        <v>0.4827107372690591</v>
       </c>
       <c r="E9">
-        <v>0.3030229992660551</v>
+        <v>0.1638931805552168</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008069014489231037</v>
+        <v>1.355134947248573</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.006793446224802879</v>
       </c>
       <c r="I9">
-        <v>0.4158498769072949</v>
+        <v>0.004450322773791093</v>
       </c>
       <c r="J9">
-        <v>0.1816030800397144</v>
+        <v>0.8721843116340011</v>
       </c>
       <c r="K9">
-        <v>1.532938101471075</v>
+        <v>0.8035171105521641</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.06389059593460189</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.533175277679931</v>
       </c>
       <c r="N9">
-        <v>0.7727052946140063</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2.511700132750832</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5695844590332797</v>
+      </c>
+      <c r="P9">
+        <v>1.373529865081778</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.566680550462138</v>
+        <v>1.46120056299651</v>
       </c>
       <c r="C10">
-        <v>0.3266893479355133</v>
+        <v>0.3875425443579559</v>
       </c>
       <c r="D10">
-        <v>0.7790813686560227</v>
+        <v>0.5438518299701514</v>
       </c>
       <c r="E10">
-        <v>0.3530534500813687</v>
+        <v>0.1827263186244821</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007997977434928139</v>
+        <v>1.467085674192447</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.00333446695546602</v>
       </c>
       <c r="I10">
-        <v>0.4268716415580585</v>
+        <v>0.002247480290415105</v>
       </c>
       <c r="J10">
-        <v>0.2131040781955136</v>
+        <v>0.9172979992625017</v>
       </c>
       <c r="K10">
-        <v>1.827563034960207</v>
+        <v>0.8446468330993753</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.07110906256790983</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.810773439314204</v>
       </c>
       <c r="N10">
-        <v>0.7018829981786414</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.679085554150589</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.6586281610241969</v>
+      </c>
+      <c r="P10">
+        <v>1.33073396447115</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.682310972919851</v>
+        <v>1.515571413963897</v>
       </c>
       <c r="C11">
-        <v>0.3511440648493362</v>
+        <v>0.3815371970577246</v>
       </c>
       <c r="D11">
-        <v>0.8287224328120146</v>
+        <v>0.4784871469291545</v>
       </c>
       <c r="E11">
-        <v>0.3763646110382552</v>
+        <v>0.1326433561232037</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007966403814602225</v>
+        <v>1.340464106478763</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02188904474073539</v>
       </c>
       <c r="I11">
-        <v>0.4330274235924421</v>
+        <v>0.002408866821946631</v>
       </c>
       <c r="J11">
-        <v>0.2277827681028839</v>
+        <v>0.8491220691054195</v>
       </c>
       <c r="K11">
-        <v>1.962872240084039</v>
+        <v>0.7718528424927129</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.03911443431760731</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.852022801586713</v>
       </c>
       <c r="N11">
-        <v>0.6711573673442892</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.761927721045652</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.588718746944636</v>
+      </c>
+      <c r="P11">
+        <v>1.210678671965674</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.726266345414786</v>
+        <v>1.517896163861991</v>
       </c>
       <c r="C12">
-        <v>0.3604543500575801</v>
+        <v>0.3617378242990128</v>
       </c>
       <c r="D12">
-        <v>0.8477082111374727</v>
+        <v>0.4143241006927383</v>
       </c>
       <c r="E12">
-        <v>0.3852806642299953</v>
+        <v>0.09460442068488106</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.000795454810336173</v>
+        <v>1.21995975305299</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06090082371798644</v>
       </c>
       <c r="I12">
-        <v>0.4355355081731176</v>
+        <v>0.002390533842582698</v>
       </c>
       <c r="J12">
-        <v>0.233397549877651</v>
+        <v>0.7868182188857418</v>
       </c>
       <c r="K12">
-        <v>2.014325644023955</v>
+        <v>0.7083111846582142</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.02456309419941505</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.828433372534079</v>
       </c>
       <c r="N12">
-        <v>0.659747858676635</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.794344925370638</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.5150756339638889</v>
+      </c>
+      <c r="P12">
+        <v>1.133077945031921</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.71679186883182</v>
+        <v>1.475759293720529</v>
       </c>
       <c r="C13">
-        <v>0.3584468801994092</v>
+        <v>0.3323363168643141</v>
       </c>
       <c r="D13">
-        <v>0.8436106158908956</v>
+        <v>0.3477739502542505</v>
       </c>
       <c r="E13">
-        <v>0.3833563361080436</v>
+        <v>0.06380062023508515</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007957097073152263</v>
+        <v>1.09142298104841</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1173617826119226</v>
       </c>
       <c r="I13">
-        <v>0.4349872594397368</v>
+        <v>0.002618368205100197</v>
       </c>
       <c r="J13">
-        <v>0.2321857000372205</v>
+        <v>0.7224376595415976</v>
       </c>
       <c r="K13">
-        <v>2.003234173595587</v>
+        <v>0.6441305881698511</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.02245707912140826</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.752191109482538</v>
       </c>
       <c r="N13">
-        <v>0.6621948799890891</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.787315348349892</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.4345527367642887</v>
+      </c>
+      <c r="P13">
+        <v>1.078629356271801</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.685923684617904</v>
+        <v>1.425481697128902</v>
       </c>
       <c r="C14">
-        <v>0.3519089870464711</v>
+        <v>0.3080241529453076</v>
       </c>
       <c r="D14">
-        <v>0.8302805273573313</v>
+        <v>0.3011082248922889</v>
       </c>
       <c r="E14">
-        <v>0.3770963084251164</v>
+        <v>0.04678635716972046</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.000796542645989056</v>
+        <v>0.9982182419911112</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1673996717779431</v>
       </c>
       <c r="I14">
-        <v>0.4332301404727446</v>
+        <v>0.003015613429949937</v>
       </c>
       <c r="J14">
-        <v>0.2282435347181888</v>
+        <v>0.6765621546588392</v>
       </c>
       <c r="K14">
-        <v>1.967100856619169</v>
+        <v>0.5989572619350128</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.0284125283183787</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.675146789540719</v>
       </c>
       <c r="N14">
-        <v>0.6702141117719602</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.764573225037026</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3761578613268242</v>
+      </c>
+      <c r="P14">
+        <v>1.051842735617743</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.667038732945485</v>
+        <v>1.402794651178709</v>
       </c>
       <c r="C15">
-        <v>0.3479110438845225</v>
+        <v>0.3005730509676425</v>
       </c>
       <c r="D15">
-        <v>0.8221405036289298</v>
+        <v>0.2888414779975079</v>
       </c>
       <c r="E15">
-        <v>0.3732736887170702</v>
+        <v>0.04315702464909066</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007970541353582035</v>
+        <v>0.9722988174610805</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1802197524108919</v>
       </c>
       <c r="I15">
-        <v>0.4321773052478122</v>
+        <v>0.00331463856050096</v>
       </c>
       <c r="J15">
-        <v>0.2258363645575088</v>
+        <v>0.6642070637948905</v>
       </c>
       <c r="K15">
-        <v>1.944997063053734</v>
+        <v>0.5867965965381856</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.03066393740011364</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.645096587688329</v>
       </c>
       <c r="N15">
-        <v>0.6751558494030725</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.750781917292585</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.3600687897182127</v>
+      </c>
+      <c r="P15">
+        <v>1.048363173385074</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.559146087612902</v>
+        <v>1.31388375434031</v>
       </c>
       <c r="C16">
-        <v>0.3250977511445967</v>
+        <v>0.2822381511363972</v>
       </c>
       <c r="D16">
-        <v>0.7758624254524591</v>
+        <v>0.277910353733148</v>
       </c>
       <c r="E16">
-        <v>0.3515418927626826</v>
+        <v>0.04234871112031158</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008000055255155948</v>
+        <v>0.9501259949602314</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1690099910095739</v>
       </c>
       <c r="I16">
-        <v>0.4264933986217656</v>
+        <v>0.004305797563781688</v>
       </c>
       <c r="J16">
-        <v>0.2121523217422236</v>
+        <v>0.657533336983505</v>
       </c>
       <c r="K16">
-        <v>1.818748607033513</v>
+        <v>0.5814875401193831</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.02819605062005337</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.542188341819411</v>
       </c>
       <c r="N16">
-        <v>0.7039219390254736</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.673813393773344</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.3405626903186771</v>
+      </c>
+      <c r="P16">
+        <v>1.075029118657884</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.49323171438084</v>
+        <v>1.272285995274217</v>
       </c>
       <c r="C17">
-        <v>0.3111835944460779</v>
+        <v>0.2810714666491378</v>
       </c>
       <c r="D17">
-        <v>0.7477861558853363</v>
+        <v>0.2936426453700989</v>
       </c>
       <c r="E17">
-        <v>0.3383578805723104</v>
+        <v>0.04985552003012295</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008018346788171238</v>
+        <v>0.9818034328509668</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1320536355602826</v>
       </c>
       <c r="I17">
-        <v>0.4233077963647744</v>
+        <v>0.004900375927983092</v>
       </c>
       <c r="J17">
-        <v>0.2038511334461788</v>
+        <v>0.6764511520158578</v>
       </c>
       <c r="K17">
-        <v>1.741648620409222</v>
+        <v>0.6009666287691715</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.02187586967411193</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.50406430653544</v>
       </c>
       <c r="N17">
-        <v>0.7219587239112322</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.628368572929247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.3558036956231092</v>
+      </c>
+      <c r="P17">
+        <v>1.109036643632095</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.455412744728619</v>
+        <v>1.26870328705121</v>
       </c>
       <c r="C18">
-        <v>0.3032081141652156</v>
+        <v>0.2935918565201519</v>
       </c>
       <c r="D18">
-        <v>0.7317467823745574</v>
+        <v>0.3363284346178403</v>
       </c>
       <c r="E18">
-        <v>0.3308261529984264</v>
+        <v>0.06949833329194632</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008028937776649586</v>
+        <v>1.068536955410693</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07924751659009388</v>
       </c>
       <c r="I18">
-        <v>0.4215821826930934</v>
+        <v>0.004781746292932709</v>
       </c>
       <c r="J18">
-        <v>0.1991089380304629</v>
+        <v>0.7219964061446547</v>
       </c>
       <c r="K18">
-        <v>1.697421543089831</v>
+        <v>0.6472469783882602</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.01825392926768199</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.517628850425666</v>
       </c>
       <c r="N18">
-        <v>0.732472706516802</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.602854960395604</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.4050693270612484</v>
+      </c>
+      <c r="P18">
+        <v>1.15985944395316</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.44262320800317</v>
+        <v>1.290476279078462</v>
       </c>
       <c r="C19">
-        <v>0.3005122859108269</v>
+        <v>0.318915665467955</v>
       </c>
       <c r="D19">
-        <v>0.7263343567076674</v>
+        <v>0.4013797750806134</v>
       </c>
       <c r="E19">
-        <v>0.3282845921917215</v>
+        <v>0.1038048886927463</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008032535935542766</v>
+        <v>1.191846291910878</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03313900450511653</v>
       </c>
       <c r="I19">
-        <v>0.4210158638106378</v>
+        <v>0.004645797864304413</v>
       </c>
       <c r="J19">
-        <v>0.197508702821878</v>
+        <v>0.7846911510095538</v>
       </c>
       <c r="K19">
-        <v>1.682466534670141</v>
+        <v>0.7102366584754378</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.02709827204088633</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.570060986822341</v>
       </c>
       <c r="N19">
-        <v>0.7360562294218695</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.594321400572397</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.4817466440039126</v>
+      </c>
+      <c r="P19">
+        <v>1.225465834730649</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.500238595686994</v>
+        <v>1.39300198460009</v>
       </c>
       <c r="C20">
-        <v>0.3126618775077077</v>
+        <v>0.3756614439330974</v>
       </c>
       <c r="D20">
-        <v>0.7507634729907977</v>
+        <v>0.5272883684957321</v>
       </c>
       <c r="E20">
-        <v>0.339755960237035</v>
+        <v>0.1774666776910578</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008016392402706626</v>
+        <v>1.424747085300595</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0041108339928555</v>
       </c>
       <c r="I20">
-        <v>0.4236357804666753</v>
+        <v>0.003548153497443529</v>
       </c>
       <c r="J20">
-        <v>0.2047314100130677</v>
+        <v>0.8989081432608543</v>
       </c>
       <c r="K20">
-        <v>1.749843539106962</v>
+        <v>0.8251897868758746</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.06895376441275047</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.734216461318084</v>
       </c>
       <c r="N20">
-        <v>0.7200241410928481</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.633140977098492</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6339967575946162</v>
+      </c>
+      <c r="P20">
+        <v>1.333098733625548</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.694985642118951</v>
+        <v>1.574735862094371</v>
       </c>
       <c r="C21">
-        <v>0.3538279140545058</v>
+        <v>0.4278172849222699</v>
       </c>
       <c r="D21">
-        <v>0.8341906432962389</v>
+        <v>0.5917699279440569</v>
       </c>
       <c r="E21">
-        <v>0.3789325478159569</v>
+        <v>0.2035421241976465</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007962977239517467</v>
+        <v>1.545732884678245</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001682619274036901</v>
       </c>
       <c r="I21">
-        <v>0.4337413374880299</v>
+        <v>0.002262042503122785</v>
       </c>
       <c r="J21">
-        <v>0.2293998654272258</v>
+        <v>0.9511430043149574</v>
       </c>
       <c r="K21">
-        <v>1.977708006098169</v>
+        <v>0.8748990934752499</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.08277526413662883</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.963686815673469</v>
       </c>
       <c r="N21">
-        <v>0.6678524529816912</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.771224032950954</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.7229287886459161</v>
+      </c>
+      <c r="P21">
+        <v>1.321638895811553</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.823259535121252</v>
+        <v>1.694935254446591</v>
       </c>
       <c r="C22">
-        <v>0.3810263452285199</v>
+        <v>0.458692395917808</v>
       </c>
       <c r="D22">
-        <v>0.8898195284430983</v>
+        <v>0.628538524330196</v>
       </c>
       <c r="E22">
-        <v>0.4050581040175061</v>
+        <v>0.2168569042432722</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007928650185846883</v>
+        <v>1.620286361597806</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0007566568727264134</v>
       </c>
       <c r="I22">
-        <v>0.4413844070372619</v>
+        <v>0.001547806396145823</v>
       </c>
       <c r="J22">
-        <v>0.2458533876198317</v>
+        <v>0.9830842500840049</v>
       </c>
       <c r="K22">
-        <v>2.127898162350192</v>
+        <v>0.9057949802652203</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.08923880670811712</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.110864277708885</v>
       </c>
       <c r="N22">
-        <v>0.6350761116855637</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.867613723405981</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.77496619731604</v>
+      </c>
+      <c r="P22">
+        <v>1.311711178940641</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.754697874004677</v>
+        <v>1.634223427908694</v>
       </c>
       <c r="C23">
-        <v>0.3664806544626344</v>
+        <v>0.4405885804200409</v>
       </c>
       <c r="D23">
-        <v>0.860021662692958</v>
+        <v>0.6088802599585392</v>
       </c>
       <c r="E23">
-        <v>0.3910634469557053</v>
+        <v>0.2097398425504267</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007946919976566016</v>
+        <v>1.584927125900066</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.001198713672972307</v>
       </c>
       <c r="I23">
-        <v>0.4372056368407726</v>
+        <v>0.001570393514144897</v>
       </c>
       <c r="J23">
-        <v>0.2370393633472361</v>
+        <v>0.9682641453283054</v>
       </c>
       <c r="K23">
-        <v>2.047612212544124</v>
+        <v>0.8923745428488559</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.08578179685166276</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.033423084331588</v>
       </c>
       <c r="N23">
-        <v>0.6524447063526928</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.815577163221576</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.7474252392901306</v>
+      </c>
+      <c r="P23">
+        <v>1.320068168130724</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.497070549451877</v>
+        <v>1.39915730288098</v>
       </c>
       <c r="C24">
-        <v>0.3119934716465025</v>
+        <v>0.3756859650709714</v>
       </c>
       <c r="D24">
-        <v>0.7494171114793744</v>
+        <v>0.5350084304773191</v>
       </c>
       <c r="E24">
-        <v>0.3391237397981044</v>
+        <v>0.1829385537631509</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.000801727574634955</v>
+        <v>1.445705050037077</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.003868990738581601</v>
       </c>
       <c r="I24">
-        <v>0.4234871701700058</v>
+        <v>0.003002770085959838</v>
       </c>
       <c r="J24">
-        <v>0.2043333431558949</v>
+        <v>0.9095415363864845</v>
       </c>
       <c r="K24">
-        <v>1.746138311094427</v>
+        <v>0.8373050013010754</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.07289899215161455</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.739837697794684</v>
       </c>
       <c r="N24">
-        <v>0.7208983170574719</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.630981469368237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.643230628133324</v>
+      </c>
+      <c r="P24">
+        <v>1.347737722447818</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.222660343443124</v>
+        <v>1.146471179937322</v>
       </c>
       <c r="C25">
-        <v>0.2542508159955617</v>
+        <v>0.3076186494948843</v>
       </c>
       <c r="D25">
-        <v>0.6342283998875473</v>
+        <v>0.4563349027050378</v>
       </c>
       <c r="E25">
-        <v>0.2850306793205561</v>
+        <v>0.1542621582216483</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008095870390812807</v>
+        <v>1.299473035295705</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.008671172147151657</v>
       </c>
       <c r="I25">
-        <v>0.4127235307117942</v>
+        <v>0.006209736017511069</v>
       </c>
       <c r="J25">
-        <v>0.1702735268762723</v>
+        <v>0.8483741410938421</v>
       </c>
       <c r="K25">
-        <v>1.425388108015085</v>
+        <v>0.7795168136026192</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.05937367516800407</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.426009136567927</v>
       </c>
       <c r="N25">
-        <v>0.8000399280463704</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.455476442347816</v>
+        <v>0.5317453328473576</v>
+      </c>
+      <c r="P25">
+        <v>1.379719742328994</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_11/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9689302931094801</v>
+        <v>0.8757614183909652</v>
       </c>
       <c r="C2">
-        <v>0.2550919432382273</v>
+        <v>0.3036458964355404</v>
       </c>
       <c r="D2">
-        <v>0.3990549932398011</v>
+        <v>0.4034925389885728</v>
       </c>
       <c r="E2">
-        <v>0.1332583261861089</v>
+        <v>0.1363616665002567</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.20552451235703</v>
+        <v>1.041051911100084</v>
       </c>
       <c r="H2">
-        <v>0.01363487410599601</v>
+        <v>0.01194286406918263</v>
       </c>
       <c r="I2">
-        <v>0.009002531481388854</v>
+        <v>0.006298339555217858</v>
       </c>
       <c r="J2">
-        <v>0.8104752179414447</v>
+        <v>0.734500599046342</v>
       </c>
       <c r="K2">
-        <v>0.7456649649927556</v>
+        <v>0.6250536188312168</v>
       </c>
       <c r="L2">
-        <v>0.04964837824190127</v>
+        <v>0.2695350315933531</v>
       </c>
       <c r="M2">
-        <v>1.199421141080819</v>
+        <v>0.2017977984442219</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.05216283833279078</v>
       </c>
       <c r="O2">
-        <v>0.4507895006306057</v>
+        <v>1.170207721359475</v>
       </c>
       <c r="P2">
-        <v>1.412806646311246</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.445100696065829</v>
+      </c>
+      <c r="R2">
+        <v>1.270250355190427</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8438331708281339</v>
+        <v>0.766049762978696</v>
       </c>
       <c r="C3">
-        <v>0.2223489512685717</v>
+        <v>0.263671868113164</v>
       </c>
       <c r="D3">
-        <v>0.3605618172941547</v>
+        <v>0.3652325903771043</v>
       </c>
       <c r="E3">
-        <v>0.1190642229705077</v>
+        <v>0.1223100717080712</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.136917479407373</v>
+        <v>0.993087375247768</v>
       </c>
       <c r="H3">
-        <v>0.01785389060670495</v>
+        <v>0.01563387410886891</v>
       </c>
       <c r="I3">
-        <v>0.01202273044761126</v>
+        <v>0.008445656511930633</v>
       </c>
       <c r="J3">
-        <v>0.7824329902587976</v>
+        <v>0.7089039013442999</v>
       </c>
       <c r="K3">
-        <v>0.7189414207094202</v>
+        <v>0.6090212405765953</v>
       </c>
       <c r="L3">
-        <v>0.04315991708005384</v>
+        <v>0.2694645709122128</v>
       </c>
       <c r="M3">
-        <v>1.04496412677878</v>
+        <v>0.1913251464501542</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.04572357969903251</v>
       </c>
       <c r="O3">
-        <v>0.3957869902465845</v>
+        <v>1.020702352572386</v>
       </c>
       <c r="P3">
-        <v>1.431640016419898</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3912027711226784</v>
+      </c>
+      <c r="R3">
+        <v>1.297012486105849</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7668223401984733</v>
+        <v>0.6982483424869486</v>
       </c>
       <c r="C4">
-        <v>0.2025998416973067</v>
+        <v>0.2395967055815049</v>
       </c>
       <c r="D4">
-        <v>0.3370544931829187</v>
+        <v>0.3418720662517813</v>
       </c>
       <c r="E4">
-        <v>0.1103550815712353</v>
+        <v>0.1136855565401049</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.095200220029085</v>
+        <v>0.9640166772033041</v>
       </c>
       <c r="H4">
-        <v>0.0208313606708892</v>
+        <v>0.01824063610273885</v>
       </c>
       <c r="I4">
-        <v>0.01420947470091827</v>
+        <v>0.01002570036301398</v>
       </c>
       <c r="J4">
-        <v>0.7654927111079104</v>
+        <v>0.6931114179844826</v>
       </c>
       <c r="K4">
-        <v>0.7026502987846399</v>
+        <v>0.5991551566459634</v>
       </c>
       <c r="L4">
-        <v>0.03921503148351846</v>
+        <v>0.2692490717330749</v>
       </c>
       <c r="M4">
-        <v>0.9503357888785047</v>
+        <v>0.1855729787050677</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.04179285132977384</v>
       </c>
       <c r="O4">
-        <v>0.362075756721822</v>
+        <v>0.9289466215269897</v>
       </c>
       <c r="P4">
-        <v>1.443474788640323</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3581370979778242</v>
+      </c>
+      <c r="R4">
+        <v>1.313702977003835</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7345460407396729</v>
+        <v>0.6697373266648867</v>
       </c>
       <c r="C5">
-        <v>0.1950186732807282</v>
+        <v>0.2302965021772252</v>
       </c>
       <c r="D5">
-        <v>0.3275041791733742</v>
+        <v>0.3323831550647895</v>
       </c>
       <c r="E5">
-        <v>0.1068065502093383</v>
+        <v>0.1101711388001796</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.077147150192815</v>
+        <v>0.9512423664859</v>
       </c>
       <c r="H5">
-        <v>0.02214507951497691</v>
+        <v>0.01939115446525042</v>
       </c>
       <c r="I5">
-        <v>0.01527168733109141</v>
+        <v>0.01083359456912447</v>
       </c>
       <c r="J5">
-        <v>0.7580720052182102</v>
+        <v>0.686116265669753</v>
       </c>
       <c r="K5">
-        <v>0.6952459072392188</v>
+        <v>0.5944434154752045</v>
       </c>
       <c r="L5">
-        <v>0.03761564833424558</v>
+        <v>0.2688109627831103</v>
       </c>
       <c r="M5">
-        <v>0.9115319795410812</v>
+        <v>0.1831921163320267</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.04019549258919852</v>
       </c>
       <c r="O5">
-        <v>0.3482875006829715</v>
+        <v>0.8912881217871416</v>
       </c>
       <c r="P5">
-        <v>1.447505582370702</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3446072636556323</v>
+      </c>
+      <c r="R5">
+        <v>1.319877531865693</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7281584381181574</v>
+        <v>0.6640566047006757</v>
       </c>
       <c r="C6">
-        <v>0.1942360768993723</v>
+        <v>0.2292494770296543</v>
       </c>
       <c r="D6">
-        <v>0.3259211439414287</v>
+        <v>0.3308108064678663</v>
       </c>
       <c r="E6">
-        <v>0.1062179964227958</v>
+        <v>0.1095883819701839</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.072754692344162</v>
+        <v>0.9478875583996995</v>
       </c>
       <c r="H6">
-        <v>0.02237702062180846</v>
+        <v>0.019594131880315</v>
       </c>
       <c r="I6">
-        <v>0.01557115624187766</v>
+        <v>0.01110344985132983</v>
       </c>
       <c r="J6">
-        <v>0.7561312360831209</v>
+        <v>0.6842947668766186</v>
       </c>
       <c r="K6">
-        <v>0.6930505268716516</v>
+        <v>0.5928257019852481</v>
       </c>
       <c r="L6">
-        <v>0.03735065913406643</v>
+        <v>0.2683615843887743</v>
       </c>
       <c r="M6">
-        <v>0.9047460600801571</v>
+        <v>0.1825548870575133</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.03993057804925471</v>
       </c>
       <c r="O6">
-        <v>0.3459233943803639</v>
+        <v>0.8847071987408128</v>
       </c>
       <c r="P6">
-        <v>1.447133174044474</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3422890804232566</v>
+      </c>
+      <c r="R6">
+        <v>1.320066623192233</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7635782533705253</v>
+        <v>0.6946695013429576</v>
       </c>
       <c r="C7">
-        <v>0.2037867996698424</v>
+        <v>0.2400858991116479</v>
       </c>
       <c r="D7">
-        <v>0.3369291346010925</v>
+        <v>0.3417794316883089</v>
       </c>
       <c r="E7">
-        <v>0.1103093275707074</v>
+        <v>0.1136611369081955</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.091130899381255</v>
+        <v>0.9639705848638869</v>
       </c>
       <c r="H7">
-        <v>0.02087005205836912</v>
+        <v>0.01828711601127408</v>
       </c>
       <c r="I7">
-        <v>0.01452857477715774</v>
+        <v>0.01038800325958977</v>
       </c>
       <c r="J7">
-        <v>0.7634476424406103</v>
+        <v>0.6840763712131377</v>
       </c>
       <c r="K7">
-        <v>0.6999077767364454</v>
+        <v>0.595775143276235</v>
       </c>
       <c r="L7">
-        <v>0.03919367793723083</v>
+        <v>0.2677843789368808</v>
       </c>
       <c r="M7">
-        <v>0.9488668337322395</v>
+        <v>0.184511652797557</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.04178485678797372</v>
       </c>
       <c r="O7">
-        <v>0.3616838717210982</v>
+        <v>0.9261240169448399</v>
       </c>
       <c r="P7">
-        <v>1.440687798467785</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3574562678038191</v>
+      </c>
+      <c r="R7">
+        <v>1.310321215888081</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9220748428264187</v>
+        <v>0.8325076241195291</v>
       </c>
       <c r="C8">
-        <v>0.2454413941932216</v>
+        <v>0.2891027486613211</v>
       </c>
       <c r="D8">
-        <v>0.38575942961414</v>
+        <v>0.390385083392232</v>
       </c>
       <c r="E8">
-        <v>0.1283652000016033</v>
+        <v>0.1315898981137025</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.176712981291317</v>
+        <v>1.031726947383589</v>
       </c>
       <c r="H8">
-        <v>0.01502998345593937</v>
+        <v>0.01319688625025039</v>
       </c>
       <c r="I8">
-        <v>0.01033488693299045</v>
+        <v>0.007419787475978268</v>
       </c>
       <c r="J8">
-        <v>0.7981782024396296</v>
+        <v>0.6998641817364302</v>
       </c>
       <c r="K8">
-        <v>0.7329303904199094</v>
+        <v>0.6131286506639526</v>
       </c>
       <c r="L8">
-        <v>0.04740156176803723</v>
+        <v>0.2668946796368772</v>
       </c>
       <c r="M8">
-        <v>1.144842724698918</v>
+        <v>0.1958940037270267</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.04998213890409886</v>
       </c>
       <c r="O8">
-        <v>0.4315331758347938</v>
+        <v>1.112686864701317</v>
       </c>
       <c r="P8">
-        <v>1.415553375653083</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4252328391092846</v>
+      </c>
+      <c r="R8">
+        <v>1.272728031496769</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.236697135026361</v>
+        <v>1.106404464872185</v>
       </c>
       <c r="C9">
-        <v>0.3279602219280378</v>
+        <v>0.3895170096016045</v>
       </c>
       <c r="D9">
-        <v>0.4827107372690591</v>
+        <v>0.4867923543002064</v>
       </c>
       <c r="E9">
-        <v>0.1638931805552168</v>
+        <v>0.1667590056655648</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.355134947248573</v>
+        <v>1.16130752895431</v>
       </c>
       <c r="H9">
-        <v>0.006793446224802879</v>
+        <v>0.005990386163865269</v>
       </c>
       <c r="I9">
-        <v>0.004450322773791093</v>
+        <v>0.003234389392754444</v>
       </c>
       <c r="J9">
-        <v>0.8721843116340011</v>
+        <v>0.7589879058814546</v>
       </c>
       <c r="K9">
-        <v>0.8035171105521641</v>
+        <v>0.6548888080867954</v>
       </c>
       <c r="L9">
-        <v>0.06389059593460189</v>
+        <v>0.2671021491220955</v>
       </c>
       <c r="M9">
-        <v>1.533175277679931</v>
+        <v>0.2262143688114371</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.06625700746301177</v>
       </c>
       <c r="O9">
-        <v>0.5695844590332797</v>
+        <v>1.486132634802715</v>
       </c>
       <c r="P9">
-        <v>1.373529865081778</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5600001096106908</v>
+      </c>
+      <c r="R9">
+        <v>1.209380158242737</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.46120056299651</v>
+        <v>1.297660606114903</v>
       </c>
       <c r="C10">
-        <v>0.3875425443579559</v>
+        <v>0.4572965884931648</v>
       </c>
       <c r="D10">
-        <v>0.5438518299701514</v>
+        <v>0.5476906540073117</v>
       </c>
       <c r="E10">
-        <v>0.1827263186244821</v>
+        <v>0.1853881808207944</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.467085674192447</v>
+        <v>1.26216999753845</v>
       </c>
       <c r="H10">
-        <v>0.00333446695546602</v>
+        <v>0.00301342937308835</v>
       </c>
       <c r="I10">
-        <v>0.002247480290415105</v>
+        <v>0.001875014921418838</v>
       </c>
       <c r="J10">
-        <v>0.9172979992625017</v>
+        <v>0.7534057606882527</v>
       </c>
       <c r="K10">
-        <v>0.8446468330993753</v>
+        <v>0.6710130619515056</v>
       </c>
       <c r="L10">
-        <v>0.07110906256790983</v>
+        <v>0.2611995437583445</v>
       </c>
       <c r="M10">
-        <v>1.810773439314204</v>
+        <v>0.246139876761255</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.07323471837851514</v>
       </c>
       <c r="O10">
-        <v>0.6586281610241969</v>
+        <v>1.743814039022908</v>
       </c>
       <c r="P10">
-        <v>1.33073396447115</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6448116054923929</v>
+      </c>
+      <c r="R10">
+        <v>1.149292711584032</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.515571413963897</v>
+        <v>1.345629240379822</v>
       </c>
       <c r="C11">
-        <v>0.3815371970577246</v>
+        <v>0.4383000900733407</v>
       </c>
       <c r="D11">
-        <v>0.4784871469291545</v>
+        <v>0.4822942886563908</v>
       </c>
       <c r="E11">
-        <v>0.1326433561232037</v>
+        <v>0.1350423716989688</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.340464106478763</v>
+        <v>1.195574667759573</v>
       </c>
       <c r="H11">
-        <v>0.02188904474073539</v>
+        <v>0.0216532083002221</v>
       </c>
       <c r="I11">
-        <v>0.002408866821946631</v>
+        <v>0.002304313353397092</v>
       </c>
       <c r="J11">
-        <v>0.8491220691054195</v>
+        <v>0.6230543728534315</v>
       </c>
       <c r="K11">
-        <v>0.7718528424927129</v>
+        <v>0.6009030438106535</v>
       </c>
       <c r="L11">
-        <v>0.03911443431760731</v>
+        <v>0.2313987459963123</v>
       </c>
       <c r="M11">
-        <v>1.852022801586713</v>
+        <v>0.2245569576941335</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.04067115763575302</v>
       </c>
       <c r="O11">
-        <v>0.588718746944636</v>
+        <v>1.767223895466572</v>
       </c>
       <c r="P11">
-        <v>1.210678671965674</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.5722052080411615</v>
+      </c>
+      <c r="R11">
+        <v>1.05048320692935</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.517896163861991</v>
+        <v>1.351786411723367</v>
       </c>
       <c r="C12">
-        <v>0.3617378242990128</v>
+        <v>0.408821681734139</v>
       </c>
       <c r="D12">
-        <v>0.4143241006927383</v>
+        <v>0.4179905721427417</v>
       </c>
       <c r="E12">
-        <v>0.09460442068488106</v>
+        <v>0.09668999592978267</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.21995975305299</v>
+        <v>1.111207135400363</v>
       </c>
       <c r="H12">
-        <v>0.06090082371798644</v>
+        <v>0.06066663196022404</v>
       </c>
       <c r="I12">
-        <v>0.002390533842582698</v>
+        <v>0.002299045890710616</v>
       </c>
       <c r="J12">
-        <v>0.7868182188857418</v>
+        <v>0.5482622272035229</v>
       </c>
       <c r="K12">
-        <v>0.7083111846582142</v>
+        <v>0.5480313126019638</v>
       </c>
       <c r="L12">
-        <v>0.02456309419941505</v>
+        <v>0.2114357565700296</v>
       </c>
       <c r="M12">
-        <v>1.828433372534079</v>
+        <v>0.2053195173228346</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.02557145294861662</v>
       </c>
       <c r="O12">
-        <v>0.5150756339638889</v>
+        <v>1.738291118454356</v>
       </c>
       <c r="P12">
-        <v>1.133077945031921</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4985113676207646</v>
+      </c>
+      <c r="R12">
+        <v>0.9973938809808871</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.475759293720529</v>
+        <v>1.323714862726604</v>
       </c>
       <c r="C13">
-        <v>0.3323363168643141</v>
+        <v>0.3733787287638677</v>
       </c>
       <c r="D13">
-        <v>0.3477739502542505</v>
+        <v>0.3511361237241033</v>
       </c>
       <c r="E13">
-        <v>0.06380062023508515</v>
+        <v>0.06553588624942641</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.09142298104841</v>
+        <v>0.9962497611533649</v>
       </c>
       <c r="H13">
-        <v>0.1173617826119226</v>
+        <v>0.1170468045039996</v>
       </c>
       <c r="I13">
-        <v>0.002618368205100197</v>
+        <v>0.002418423176928641</v>
       </c>
       <c r="J13">
-        <v>0.7224376595415976</v>
+        <v>0.5127908892417565</v>
       </c>
       <c r="K13">
-        <v>0.6441305881698511</v>
+        <v>0.5030156673399588</v>
       </c>
       <c r="L13">
-        <v>0.02245707912140826</v>
+        <v>0.1963225313813517</v>
       </c>
       <c r="M13">
-        <v>1.752191109482538</v>
+        <v>0.1864253687332571</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.02302511899862836</v>
       </c>
       <c r="O13">
-        <v>0.4345527367642887</v>
+        <v>1.669693461670846</v>
       </c>
       <c r="P13">
-        <v>1.078629356271801</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.4203324098749448</v>
+      </c>
+      <c r="R13">
+        <v>0.9707313985571169</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.425481697128902</v>
+        <v>1.28778131051078</v>
       </c>
       <c r="C14">
-        <v>0.3080241529453076</v>
+        <v>0.3462544084871979</v>
       </c>
       <c r="D14">
-        <v>0.3011082248922889</v>
+        <v>0.3042033092338414</v>
       </c>
       <c r="E14">
-        <v>0.04678635716972046</v>
+        <v>0.04830139282458035</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.9982182419911112</v>
+        <v>0.9043051013980801</v>
       </c>
       <c r="H14">
-        <v>0.1673996717779431</v>
+        <v>0.1669809219174994</v>
       </c>
       <c r="I14">
-        <v>0.003015613429949937</v>
+        <v>0.002686234777776519</v>
       </c>
       <c r="J14">
-        <v>0.6765621546588392</v>
+        <v>0.5018404514979267</v>
       </c>
       <c r="K14">
-        <v>0.5989572619350128</v>
+        <v>0.4743239856194847</v>
       </c>
       <c r="L14">
-        <v>0.0284125283183787</v>
+        <v>0.1874449099691446</v>
       </c>
       <c r="M14">
-        <v>1.675146789540719</v>
+        <v>0.1733097270717678</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.02879070262056871</v>
       </c>
       <c r="O14">
-        <v>0.3761578613268242</v>
+        <v>1.603457427033049</v>
       </c>
       <c r="P14">
-        <v>1.051842735617743</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3644037802021884</v>
+      </c>
+      <c r="R14">
+        <v>0.9630934867355778</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.402794651178709</v>
+        <v>1.270640661301343</v>
       </c>
       <c r="C15">
-        <v>0.3005730509676425</v>
+        <v>0.3386483490479009</v>
       </c>
       <c r="D15">
-        <v>0.2888414779975079</v>
+        <v>0.2918553055595368</v>
       </c>
       <c r="E15">
-        <v>0.04315702464909066</v>
+        <v>0.04463353984736074</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.9722988174610805</v>
+        <v>0.8757119657122416</v>
       </c>
       <c r="H15">
-        <v>0.1802197524108919</v>
+        <v>0.1797505282070233</v>
       </c>
       <c r="I15">
-        <v>0.00331463856050096</v>
+        <v>0.002940582521453017</v>
       </c>
       <c r="J15">
-        <v>0.6642070637948905</v>
+        <v>0.504428241206341</v>
       </c>
       <c r="K15">
-        <v>0.5867965965381856</v>
+        <v>0.4677111842104047</v>
       </c>
       <c r="L15">
-        <v>0.03066393740011364</v>
+        <v>0.1857227758755968</v>
       </c>
       <c r="M15">
-        <v>1.645096587688329</v>
+        <v>0.1698176689956448</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.03104940170710435</v>
       </c>
       <c r="O15">
-        <v>0.3600687897182127</v>
+        <v>1.578396813035738</v>
       </c>
       <c r="P15">
-        <v>1.048363173385074</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.3492747011101756</v>
+      </c>
+      <c r="R15">
+        <v>0.9645362931857204</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.31388375434031</v>
+        <v>1.198914777562464</v>
       </c>
       <c r="C16">
-        <v>0.2822381511363972</v>
+        <v>0.324216819108301</v>
       </c>
       <c r="D16">
-        <v>0.277910353733148</v>
+        <v>0.2808191882448625</v>
       </c>
       <c r="E16">
-        <v>0.04234871112031158</v>
+        <v>0.04394118000018743</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.9501259949602314</v>
+        <v>0.8291879079621935</v>
       </c>
       <c r="H16">
-        <v>0.1690099910095739</v>
+        <v>0.1682926182090796</v>
       </c>
       <c r="I16">
-        <v>0.004305797563781688</v>
+        <v>0.003614337687603886</v>
       </c>
       <c r="J16">
-        <v>0.657533336983505</v>
+        <v>0.5543022437516356</v>
       </c>
       <c r="K16">
-        <v>0.5814875401193831</v>
+        <v>0.4751540281301168</v>
       </c>
       <c r="L16">
-        <v>0.02819605062005337</v>
+        <v>0.1914608611796282</v>
       </c>
       <c r="M16">
-        <v>1.542188341819411</v>
+        <v>0.1684450217647999</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.0289741962846719</v>
       </c>
       <c r="O16">
-        <v>0.3405626903186771</v>
+        <v>1.495156633929781</v>
       </c>
       <c r="P16">
-        <v>1.075029118657884</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.3329461323452492</v>
+      </c>
+      <c r="R16">
+        <v>0.9937064203159611</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.272285995274217</v>
+        <v>1.161874532544175</v>
       </c>
       <c r="C17">
-        <v>0.2810714666491378</v>
+        <v>0.3266510596656929</v>
       </c>
       <c r="D17">
-        <v>0.2936426453700989</v>
+        <v>0.2966426881932307</v>
       </c>
       <c r="E17">
-        <v>0.04985552003012295</v>
+        <v>0.05162053319519089</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.9818034328509668</v>
+        <v>0.8448453335474255</v>
       </c>
       <c r="H17">
-        <v>0.1320536355602826</v>
+        <v>0.1312038020115693</v>
       </c>
       <c r="I17">
-        <v>0.004900375927983092</v>
+        <v>0.004034811762760881</v>
       </c>
       <c r="J17">
-        <v>0.6764511520158578</v>
+        <v>0.5947926623717592</v>
       </c>
       <c r="K17">
-        <v>0.6009666287691715</v>
+        <v>0.4952630313072603</v>
       </c>
       <c r="L17">
-        <v>0.02187586967411193</v>
+        <v>0.2006679735578416</v>
       </c>
       <c r="M17">
-        <v>1.50406430653544</v>
+        <v>0.1737341636863441</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.02294858622232532</v>
       </c>
       <c r="O17">
-        <v>0.3558036956231092</v>
+        <v>1.464265276598383</v>
       </c>
       <c r="P17">
-        <v>1.109036643632095</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.349171296791269</v>
+      </c>
+      <c r="R17">
+        <v>1.021063545492883</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.26870328705121</v>
+        <v>1.153974904948853</v>
       </c>
       <c r="C18">
-        <v>0.2935918565201519</v>
+        <v>0.3445235929506794</v>
       </c>
       <c r="D18">
-        <v>0.3363284346178403</v>
+        <v>0.3395281398479852</v>
       </c>
       <c r="E18">
-        <v>0.06949833329194632</v>
+        <v>0.07148947138990636</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.068536955410693</v>
+        <v>0.9123881608086748</v>
       </c>
       <c r="H18">
-        <v>0.07924751659009388</v>
+        <v>0.07838130565536972</v>
       </c>
       <c r="I18">
-        <v>0.004781746292932709</v>
+        <v>0.003833200216037724</v>
       </c>
       <c r="J18">
-        <v>0.7219964061446547</v>
+        <v>0.6439668489150989</v>
       </c>
       <c r="K18">
-        <v>0.6472469783882602</v>
+        <v>0.5330537481849547</v>
       </c>
       <c r="L18">
-        <v>0.01825392926768199</v>
+        <v>0.2156851058325415</v>
       </c>
       <c r="M18">
-        <v>1.517628850425666</v>
+        <v>0.1868169384547755</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.01961741795006366</v>
       </c>
       <c r="O18">
-        <v>0.4050693270612484</v>
+        <v>1.478565905107047</v>
       </c>
       <c r="P18">
-        <v>1.15985944395316</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3982084623783706</v>
+      </c>
+      <c r="R18">
+        <v>1.056160529358461</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.290476279078462</v>
+        <v>1.165698325979179</v>
       </c>
       <c r="C19">
-        <v>0.318915665467955</v>
+        <v>0.3771034035759442</v>
       </c>
       <c r="D19">
-        <v>0.4013797750806134</v>
+        <v>0.4048243572185726</v>
       </c>
       <c r="E19">
-        <v>0.1038048886927463</v>
+        <v>0.1060589308060393</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.191846291910878</v>
+        <v>1.012514559579373</v>
       </c>
       <c r="H19">
-        <v>0.03313900450511653</v>
+        <v>0.03236399439013837</v>
       </c>
       <c r="I19">
-        <v>0.004645797864304413</v>
+        <v>0.003809156445822026</v>
       </c>
       <c r="J19">
-        <v>0.7846911510095538</v>
+        <v>0.6998051264788501</v>
       </c>
       <c r="K19">
-        <v>0.7102366584754378</v>
+        <v>0.5814998984800326</v>
       </c>
       <c r="L19">
-        <v>0.02709827204088633</v>
+        <v>0.2339692591648621</v>
       </c>
       <c r="M19">
-        <v>1.570060986822341</v>
+        <v>0.2048664523642607</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.02878082227324619</v>
       </c>
       <c r="O19">
-        <v>0.4817466440039126</v>
+        <v>1.527844902205743</v>
       </c>
       <c r="P19">
-        <v>1.225465834730649</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4738442023633951</v>
+      </c>
+      <c r="R19">
+        <v>1.099410999520199</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.39300198460009</v>
+        <v>1.241558923126348</v>
       </c>
       <c r="C20">
-        <v>0.3756614439330974</v>
+        <v>0.4461364609202292</v>
       </c>
       <c r="D20">
-        <v>0.5272883684957321</v>
+        <v>0.5310716163836844</v>
       </c>
       <c r="E20">
-        <v>0.1774666776910578</v>
+        <v>0.180105067522824</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.424747085300595</v>
+        <v>1.211364406068085</v>
       </c>
       <c r="H20">
-        <v>0.0041108339928555</v>
+        <v>0.003663532915548995</v>
       </c>
       <c r="I20">
-        <v>0.003548153497443529</v>
+        <v>0.003123429537176925</v>
       </c>
       <c r="J20">
-        <v>0.8989081432608543</v>
+        <v>0.7736972928024812</v>
       </c>
       <c r="K20">
-        <v>0.8251897868758746</v>
+        <v>0.6632575313084175</v>
       </c>
       <c r="L20">
-        <v>0.06895376441275047</v>
+        <v>0.2614734500085163</v>
       </c>
       <c r="M20">
-        <v>1.734216461318084</v>
+        <v>0.2393662158474328</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.0711046369018753</v>
       </c>
       <c r="O20">
-        <v>0.6339967575946162</v>
+        <v>1.678065960151002</v>
       </c>
       <c r="P20">
-        <v>1.333098733625548</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6224718451306614</v>
+      </c>
+      <c r="R20">
+        <v>1.162194081334604</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.574735862094371</v>
+        <v>1.382165498368323</v>
       </c>
       <c r="C21">
-        <v>0.4278172849222699</v>
+        <v>0.4917623939568898</v>
       </c>
       <c r="D21">
-        <v>0.5917699279440569</v>
+        <v>0.5960891486266178</v>
       </c>
       <c r="E21">
-        <v>0.2035421241976465</v>
+        <v>0.2065304632005862</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.545732884678245</v>
+        <v>1.389166236748252</v>
       </c>
       <c r="H21">
-        <v>0.001682619274036901</v>
+        <v>0.001578999505106538</v>
       </c>
       <c r="I21">
-        <v>0.002262042503122785</v>
+        <v>0.002356444538926361</v>
       </c>
       <c r="J21">
-        <v>0.9511430043149574</v>
+        <v>0.6625192512239693</v>
       </c>
       <c r="K21">
-        <v>0.8748990934752499</v>
+        <v>0.6703603675024183</v>
       </c>
       <c r="L21">
-        <v>0.08277526413662883</v>
+        <v>0.2552044537314444</v>
       </c>
       <c r="M21">
-        <v>1.963686815673469</v>
+        <v>0.2532552411519333</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.08506756762578505</v>
       </c>
       <c r="O21">
-        <v>0.7229287886459161</v>
+        <v>1.862627627688994</v>
       </c>
       <c r="P21">
-        <v>1.321638895811553</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7016766675588215</v>
+      </c>
+      <c r="R21">
+        <v>1.111919763324401</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.694935254446591</v>
+        <v>1.474371577256534</v>
       </c>
       <c r="C22">
-        <v>0.458692395917808</v>
+        <v>0.5164658977411989</v>
       </c>
       <c r="D22">
-        <v>0.628538524330196</v>
+        <v>0.6332806159220752</v>
       </c>
       <c r="E22">
-        <v>0.2168569042432722</v>
+        <v>0.2201124087600093</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.620286361597806</v>
+        <v>1.511878324549599</v>
       </c>
       <c r="H22">
-        <v>0.0007566568727264134</v>
+        <v>0.0007690184194035776</v>
       </c>
       <c r="I22">
-        <v>0.001547806396145823</v>
+        <v>0.001772557346426673</v>
       </c>
       <c r="J22">
-        <v>0.9830842500840049</v>
+        <v>0.588370581223586</v>
       </c>
       <c r="K22">
-        <v>0.9057949802652203</v>
+        <v>0.6723190837959194</v>
       </c>
       <c r="L22">
-        <v>0.08923880670811712</v>
+        <v>0.250251128990957</v>
       </c>
       <c r="M22">
-        <v>2.110864277708885</v>
+        <v>0.261633023905155</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.09161431247701302</v>
       </c>
       <c r="O22">
-        <v>0.77496619731604</v>
+        <v>1.977631613624368</v>
       </c>
       <c r="P22">
-        <v>1.311711178940641</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.7467722281894353</v>
+      </c>
+      <c r="R22">
+        <v>1.07673528792585</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.634223427908694</v>
+        <v>1.43001776335916</v>
       </c>
       <c r="C23">
-        <v>0.4405885804200409</v>
+        <v>0.5036545534390484</v>
       </c>
       <c r="D23">
-        <v>0.6088802599585392</v>
+        <v>0.6132902804969547</v>
       </c>
       <c r="E23">
-        <v>0.2097398425504267</v>
+        <v>0.2127810161106254</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.584927125900066</v>
+        <v>1.439657702605871</v>
       </c>
       <c r="H23">
-        <v>0.001198713672972307</v>
+        <v>0.001153854019434242</v>
       </c>
       <c r="I23">
-        <v>0.001570393514144897</v>
+        <v>0.00167482390006235</v>
       </c>
       <c r="J23">
-        <v>0.9682641453283054</v>
+        <v>0.64373372386504</v>
       </c>
       <c r="K23">
-        <v>0.8923745428488559</v>
+        <v>0.6763732683611323</v>
       </c>
       <c r="L23">
-        <v>0.08578179685166276</v>
+        <v>0.2546341516719401</v>
       </c>
       <c r="M23">
-        <v>2.033423084331588</v>
+        <v>0.2592134005617126</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.08806838219238244</v>
       </c>
       <c r="O23">
-        <v>0.7474252392901306</v>
+        <v>1.921289891557109</v>
       </c>
       <c r="P23">
-        <v>1.320068168130724</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.723783784065958</v>
+      </c>
+      <c r="R23">
+        <v>1.100069982256755</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.39915730288098</v>
+        <v>1.24639580586387</v>
       </c>
       <c r="C24">
-        <v>0.3756859650709714</v>
+        <v>0.4468850356077212</v>
       </c>
       <c r="D24">
-        <v>0.5350084304773191</v>
+        <v>0.5388100224312495</v>
       </c>
       <c r="E24">
-        <v>0.1829385537631509</v>
+        <v>0.1856038609159896</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.445705050037077</v>
+        <v>1.228391957463614</v>
       </c>
       <c r="H24">
-        <v>0.003868990738581601</v>
+        <v>0.00343197861420852</v>
       </c>
       <c r="I24">
-        <v>0.003002770085959838</v>
+        <v>0.002488801810698327</v>
       </c>
       <c r="J24">
-        <v>0.9095415363864845</v>
+        <v>0.7839844128181284</v>
       </c>
       <c r="K24">
-        <v>0.8373050013010754</v>
+        <v>0.6730383457614977</v>
       </c>
       <c r="L24">
-        <v>0.07289899215161455</v>
+        <v>0.2651815222620009</v>
       </c>
       <c r="M24">
-        <v>1.739837697794684</v>
+        <v>0.242987724397608</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.07508886955537974</v>
       </c>
       <c r="O24">
-        <v>0.643230628133324</v>
+        <v>1.683496186120692</v>
       </c>
       <c r="P24">
-        <v>1.347737722447818</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6316043915828402</v>
+      </c>
+      <c r="R24">
+        <v>1.172829390410399</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.146471179937322</v>
+        <v>1.028822456279187</v>
       </c>
       <c r="C25">
-        <v>0.3076186494948843</v>
+        <v>0.3654238345652061</v>
       </c>
       <c r="D25">
-        <v>0.4563349027050378</v>
+        <v>0.4605199808647455</v>
       </c>
       <c r="E25">
-        <v>0.1542621582216483</v>
+        <v>0.1572003351295272</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.299473035295705</v>
+        <v>1.114649994627541</v>
       </c>
       <c r="H25">
-        <v>0.008671172147151657</v>
+        <v>0.007622029559988475</v>
       </c>
       <c r="I25">
-        <v>0.006209736017511069</v>
+        <v>0.004670964463266536</v>
       </c>
       <c r="J25">
-        <v>0.8483741410938421</v>
+        <v>0.7499177708978237</v>
       </c>
       <c r="K25">
-        <v>0.7795168136026192</v>
+        <v>0.6410395380894371</v>
       </c>
       <c r="L25">
-        <v>0.05937367516800407</v>
+        <v>0.2662100007147572</v>
       </c>
       <c r="M25">
-        <v>1.426009136567927</v>
+        <v>0.2164853171193251</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.06179737598545998</v>
       </c>
       <c r="O25">
-        <v>0.5317453328473576</v>
+        <v>1.385339544269414</v>
       </c>
       <c r="P25">
-        <v>1.379719742328994</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.5235469778756681</v>
+      </c>
+      <c r="R25">
+        <v>1.224117567778542</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
